--- a/data/original/Root_dmg_tot.xlsx
+++ b/data/original/Root_dmg_tot.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://irtacat-my.sharepoint.com/personal/alejandro_munoz_irta_cat/Documents/Documentos/Exclusion-Lisso-Analysis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://irtacat-my.sharepoint.com/personal/alejandro_munoz_irta_cat/Documents/Documentos/Exclusion-Lisso-Analysis/data/original/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{EBF209D0-1C83-4522-88DA-31CE7AD52EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7A8489D-AD17-4AB4-8A3A-FC18799E5877}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{EBF209D0-1C83-4522-88DA-31CE7AD52EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E1D6CC8-DA1B-4754-BAF2-34FF74815CB7}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7515" windowWidth="29040" windowHeight="15720" xr2:uid="{470F8EFD-4E5B-4CCE-B3CE-FCB4750212B9}"/>
   </bookViews>
@@ -78,6 +78,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -113,13 +116,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -138,6 +142,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
     </dxf>
     <dxf>
       <font>
@@ -250,16 +255,20 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA069561-F2C7-4693-BE36-27BA55431008}" name="Tabla5" displayName="Tabla5" ref="A1:F685" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F685" xr:uid="{7F76055B-7275-47D3-8C12-1235C3A8AA54}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{556005AC-3289-4222-8B17-F39120C06BD8}" name="Date" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{D3341270-6D59-4685-A498-C1D928AB7814}" name="Field" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{ADCF6CC5-3A2B-4CEA-AC53-FDA5F1B7FE77}" name="Treatment" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{26ABFD38-47B1-4A8C-AE06-180CBB6C2FF1}" name="Repeats" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{592859AD-CAB6-48A6-99EB-7435E8C29F8A}" name="Root_weight" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{D7C6A46A-4597-4FEF-9120-7D15C7ECC999}" name="Observations" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{556005AC-3289-4222-8B17-F39120C06BD8}" name="Date" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{D3341270-6D59-4685-A498-C1D928AB7814}" name="Field" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{ADCF6CC5-3A2B-4CEA-AC53-FDA5F1B7FE77}" name="Treatment" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{26ABFD38-47B1-4A8C-AE06-180CBB6C2FF1}" name="Repeats" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{592859AD-CAB6-48A6-99EB-7435E8C29F8A}" name="Root_weight" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{D7C6A46A-4597-4FEF-9120-7D15C7ECC999}" name="Observations" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -565,12 +574,12 @@
   <dimension ref="A1:F685"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="A2" sqref="A2:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.36328125" customWidth="1"/>
     <col min="3" max="3" width="13.54296875" customWidth="1"/>
     <col min="4" max="4" width="10.6328125" customWidth="1"/>
@@ -599,7 +608,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>45827</v>
       </c>
       <c r="B2" s="1">
@@ -614,12 +623,12 @@
       <c r="E2" s="1">
         <v>0.76</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>45827</v>
       </c>
       <c r="B3" s="1">
@@ -639,7 +648,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>45827</v>
       </c>
       <c r="B4" s="1">
@@ -659,7 +668,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>45827</v>
       </c>
       <c r="B5" s="1">
@@ -679,7 +688,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>45827</v>
       </c>
       <c r="B6" s="1">
@@ -699,7 +708,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>45827</v>
       </c>
       <c r="B7" s="1">
@@ -719,7 +728,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>45827</v>
       </c>
       <c r="B8" s="1">
@@ -739,7 +748,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>45827</v>
       </c>
       <c r="B9" s="1">
@@ -759,7 +768,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>45827</v>
       </c>
       <c r="B10" s="1">
@@ -779,7 +788,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>45827</v>
       </c>
       <c r="B11" s="1">
@@ -799,7 +808,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>45827</v>
       </c>
       <c r="B12" s="1">
@@ -819,7 +828,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>45827</v>
       </c>
       <c r="B13" s="1">
@@ -839,7 +848,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>45827</v>
       </c>
       <c r="B14" s="1">
@@ -859,7 +868,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>45827</v>
       </c>
       <c r="B15" s="1">
@@ -879,7 +888,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>45827</v>
       </c>
       <c r="B16" s="1">
@@ -899,7 +908,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>45827</v>
       </c>
       <c r="B17" s="1">
@@ -919,7 +928,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>45827</v>
       </c>
       <c r="B18" s="1">
@@ -939,7 +948,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>45827</v>
       </c>
       <c r="B19" s="1">
@@ -959,7 +968,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>45827</v>
       </c>
       <c r="B20" s="1">
@@ -979,7 +988,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>45827</v>
       </c>
       <c r="B21" s="1">
@@ -999,7 +1008,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>45827</v>
       </c>
       <c r="B22" s="1">
@@ -1019,7 +1028,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>45827</v>
       </c>
       <c r="B23" s="1">
@@ -1039,7 +1048,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>45827</v>
       </c>
       <c r="B24" s="1">
@@ -1059,7 +1068,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>45827</v>
       </c>
       <c r="B25" s="1">
@@ -1079,7 +1088,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>45827</v>
       </c>
       <c r="B26" s="1">
@@ -1099,7 +1108,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>45827</v>
       </c>
       <c r="B27" s="1">
@@ -1119,7 +1128,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>45827</v>
       </c>
       <c r="B28" s="1">
@@ -1139,7 +1148,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>45827</v>
       </c>
       <c r="B29" s="1">
@@ -1159,7 +1168,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>45827</v>
       </c>
       <c r="B30" s="1">
@@ -1179,7 +1188,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>45827</v>
       </c>
       <c r="B31" s="1">
@@ -1199,7 +1208,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <v>45827</v>
       </c>
       <c r="B32" s="1">
@@ -1219,7 +1228,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <v>45827</v>
       </c>
       <c r="B33" s="1">
@@ -1239,7 +1248,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <v>45827</v>
       </c>
       <c r="B34" s="1">
@@ -1259,7 +1268,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <v>45827</v>
       </c>
       <c r="B35" s="1">
@@ -1279,7 +1288,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
+      <c r="A36" s="3">
         <v>45827</v>
       </c>
       <c r="B36" s="1">
@@ -1299,7 +1308,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="2">
+      <c r="A37" s="3">
         <v>45827</v>
       </c>
       <c r="B37" s="1">
@@ -1319,7 +1328,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
+      <c r="A38" s="3">
         <v>45827</v>
       </c>
       <c r="B38" s="1">
@@ -1339,7 +1348,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
+      <c r="A39" s="3">
         <v>45827</v>
       </c>
       <c r="B39" s="1">
@@ -1359,7 +1368,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="2">
+      <c r="A40" s="3">
         <v>45827</v>
       </c>
       <c r="B40" s="1">
@@ -1379,7 +1388,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="2">
+      <c r="A41" s="3">
         <v>45827</v>
       </c>
       <c r="B41" s="1">
@@ -1399,7 +1408,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="2">
+      <c r="A42" s="3">
         <v>45827</v>
       </c>
       <c r="B42" s="1">
@@ -1419,7 +1428,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="2">
+      <c r="A43" s="3">
         <v>45827</v>
       </c>
       <c r="B43" s="1">
@@ -1439,7 +1448,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="2">
+      <c r="A44" s="3">
         <v>45827</v>
       </c>
       <c r="B44" s="1">
@@ -1459,7 +1468,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="2">
+      <c r="A45" s="3">
         <v>45827</v>
       </c>
       <c r="B45" s="1">
@@ -1479,7 +1488,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="2">
+      <c r="A46" s="3">
         <v>45827</v>
       </c>
       <c r="B46" s="1">
@@ -1499,7 +1508,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="2">
+      <c r="A47" s="3">
         <v>45827</v>
       </c>
       <c r="B47" s="1">
@@ -1519,7 +1528,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="2">
+      <c r="A48" s="3">
         <v>45827</v>
       </c>
       <c r="B48" s="1">
@@ -1539,7 +1548,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="2">
+      <c r="A49" s="3">
         <v>45827</v>
       </c>
       <c r="B49" s="1">
@@ -1559,7 +1568,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="2">
+      <c r="A50" s="3">
         <v>45827</v>
       </c>
       <c r="B50" s="1">
@@ -1579,7 +1588,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="2">
+      <c r="A51" s="3">
         <v>45827</v>
       </c>
       <c r="B51" s="1">
@@ -1599,7 +1608,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="2">
+      <c r="A52" s="3">
         <v>45827</v>
       </c>
       <c r="B52" s="1">
@@ -1619,7 +1628,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="2">
+      <c r="A53" s="3">
         <v>45827</v>
       </c>
       <c r="B53" s="1">
@@ -1639,7 +1648,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="2">
+      <c r="A54" s="3">
         <v>45827</v>
       </c>
       <c r="B54" s="1">
@@ -1659,7 +1668,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="2">
+      <c r="A55" s="3">
         <v>45827</v>
       </c>
       <c r="B55" s="1">
@@ -1679,7 +1688,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="2">
+      <c r="A56" s="3">
         <v>45827</v>
       </c>
       <c r="B56" s="1">
@@ -1699,7 +1708,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="2">
+      <c r="A57" s="3">
         <v>45827</v>
       </c>
       <c r="B57" s="1">
@@ -1719,7 +1728,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="2">
+      <c r="A58" s="3">
         <v>45827</v>
       </c>
       <c r="B58" s="1">
@@ -1739,7 +1748,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="2">
+      <c r="A59" s="3">
         <v>45827</v>
       </c>
       <c r="B59" s="1">
@@ -1759,7 +1768,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="2">
+      <c r="A60" s="3">
         <v>45827</v>
       </c>
       <c r="B60" s="1">
@@ -1779,7 +1788,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="2">
+      <c r="A61" s="3">
         <v>45827</v>
       </c>
       <c r="B61" s="1">
@@ -1799,7 +1808,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="2">
+      <c r="A62" s="3">
         <v>45827</v>
       </c>
       <c r="B62" s="1">
@@ -1819,7 +1828,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="2">
+      <c r="A63" s="3">
         <v>45827</v>
       </c>
       <c r="B63" s="1">
@@ -1839,7 +1848,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="2">
+      <c r="A64" s="3">
         <v>45827</v>
       </c>
       <c r="B64" s="1">
@@ -1859,7 +1868,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="2">
+      <c r="A65" s="3">
         <v>45827</v>
       </c>
       <c r="B65" s="1">
@@ -1879,7 +1888,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="2">
+      <c r="A66" s="3">
         <v>45827</v>
       </c>
       <c r="B66" s="1">
@@ -1899,7 +1908,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="2">
+      <c r="A67" s="3">
         <v>45827</v>
       </c>
       <c r="B67" s="1">
@@ -1919,7 +1928,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="2">
+      <c r="A68" s="3">
         <v>45827</v>
       </c>
       <c r="B68" s="1">
@@ -1939,7 +1948,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="2">
+      <c r="A69" s="3">
         <v>45827</v>
       </c>
       <c r="B69" s="1">
@@ -1959,7 +1968,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="2">
+      <c r="A70" s="3">
         <v>45827</v>
       </c>
       <c r="B70" s="1">
@@ -1979,7 +1988,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="2">
+      <c r="A71" s="3">
         <v>45827</v>
       </c>
       <c r="B71" s="1">
@@ -1999,7 +2008,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="2">
+      <c r="A72" s="3">
         <v>45827</v>
       </c>
       <c r="B72" s="1">
@@ -2019,7 +2028,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" s="2">
+      <c r="A73" s="3">
         <v>45827</v>
       </c>
       <c r="B73" s="1">
@@ -2039,7 +2048,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" s="2">
+      <c r="A74" s="3">
         <v>45827</v>
       </c>
       <c r="B74" s="1">
@@ -2059,7 +2068,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" s="2">
+      <c r="A75" s="3">
         <v>45827</v>
       </c>
       <c r="B75" s="1">
@@ -2079,7 +2088,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" s="2">
+      <c r="A76" s="3">
         <v>45827</v>
       </c>
       <c r="B76" s="1">
@@ -2099,7 +2108,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" s="2">
+      <c r="A77" s="3">
         <v>45827</v>
       </c>
       <c r="B77" s="1">
@@ -2119,7 +2128,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78" s="2">
+      <c r="A78" s="3">
         <v>45827</v>
       </c>
       <c r="B78" s="1">
@@ -2139,7 +2148,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" s="2">
+      <c r="A79" s="3">
         <v>45827</v>
       </c>
       <c r="B79" s="1">
@@ -2159,7 +2168,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" s="2">
+      <c r="A80" s="3">
         <v>45827</v>
       </c>
       <c r="B80" s="1">
@@ -2179,7 +2188,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" s="2">
+      <c r="A81" s="3">
         <v>45827</v>
       </c>
       <c r="B81" s="1">
@@ -2199,7 +2208,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" s="2">
+      <c r="A82" s="3">
         <v>45827</v>
       </c>
       <c r="B82" s="1">
@@ -2219,7 +2228,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" s="2">
+      <c r="A83" s="3">
         <v>45827</v>
       </c>
       <c r="B83" s="1">
@@ -2239,7 +2248,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" s="2">
+      <c r="A84" s="3">
         <v>45827</v>
       </c>
       <c r="B84" s="1">
@@ -2259,7 +2268,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" s="2">
+      <c r="A85" s="3">
         <v>45827</v>
       </c>
       <c r="B85" s="1">
@@ -2279,7 +2288,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" s="2">
+      <c r="A86" s="3">
         <v>45827</v>
       </c>
       <c r="B86" s="1">
@@ -2299,7 +2308,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" s="2">
+      <c r="A87" s="3">
         <v>45827</v>
       </c>
       <c r="B87" s="1">
@@ -2319,7 +2328,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" s="2">
+      <c r="A88" s="3">
         <v>45827</v>
       </c>
       <c r="B88" s="1">
@@ -2339,7 +2348,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" s="2">
+      <c r="A89" s="3">
         <v>45827</v>
       </c>
       <c r="B89" s="1">
@@ -2359,7 +2368,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" s="2">
+      <c r="A90" s="3">
         <v>45827</v>
       </c>
       <c r="B90" s="1">
@@ -2379,7 +2388,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91" s="2">
+      <c r="A91" s="3">
         <v>45827</v>
       </c>
       <c r="B91" s="1">
@@ -2399,7 +2408,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A92" s="2">
+      <c r="A92" s="3">
         <v>45827</v>
       </c>
       <c r="B92" s="1">
@@ -2419,7 +2428,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A93" s="2">
+      <c r="A93" s="3">
         <v>45827</v>
       </c>
       <c r="B93" s="1">
@@ -2439,7 +2448,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A94" s="2">
+      <c r="A94" s="3">
         <v>45827</v>
       </c>
       <c r="B94" s="1">
@@ -2459,7 +2468,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A95" s="2">
+      <c r="A95" s="3">
         <v>45827</v>
       </c>
       <c r="B95" s="1">
@@ -2479,7 +2488,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A96" s="2">
+      <c r="A96" s="3">
         <v>45827</v>
       </c>
       <c r="B96" s="1">
@@ -2499,7 +2508,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A97" s="2">
+      <c r="A97" s="3">
         <v>45827</v>
       </c>
       <c r="B97" s="1">
@@ -2519,7 +2528,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A98" s="2">
+      <c r="A98" s="3">
         <v>45827</v>
       </c>
       <c r="B98" s="1">
@@ -2539,7 +2548,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A99" s="2">
+      <c r="A99" s="3">
         <v>45827</v>
       </c>
       <c r="B99" s="1">
@@ -2559,7 +2568,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A100" s="2">
+      <c r="A100" s="3">
         <v>45827</v>
       </c>
       <c r="B100" s="1">
@@ -2579,7 +2588,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A101" s="2">
+      <c r="A101" s="3">
         <v>45827</v>
       </c>
       <c r="B101" s="1">
@@ -2599,7 +2608,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A102" s="2">
+      <c r="A102" s="3">
         <v>45838</v>
       </c>
       <c r="B102" s="1">
@@ -2619,7 +2628,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A103" s="2">
+      <c r="A103" s="3">
         <v>45838</v>
       </c>
       <c r="B103" s="1">
@@ -2639,7 +2648,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A104" s="2">
+      <c r="A104" s="3">
         <v>45838</v>
       </c>
       <c r="B104" s="1">
@@ -2659,7 +2668,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A105" s="2">
+      <c r="A105" s="3">
         <v>45838</v>
       </c>
       <c r="B105" s="1">
@@ -2679,7 +2688,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A106" s="2">
+      <c r="A106" s="3">
         <v>45838</v>
       </c>
       <c r="B106" s="1">
@@ -2699,7 +2708,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A107" s="2">
+      <c r="A107" s="3">
         <v>45838</v>
       </c>
       <c r="B107" s="1">
@@ -2719,7 +2728,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A108" s="2">
+      <c r="A108" s="3">
         <v>45838</v>
       </c>
       <c r="B108" s="1">
@@ -2739,7 +2748,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A109" s="2">
+      <c r="A109" s="3">
         <v>45838</v>
       </c>
       <c r="B109" s="1">
@@ -2759,7 +2768,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A110" s="2">
+      <c r="A110" s="3">
         <v>45838</v>
       </c>
       <c r="B110" s="1">
@@ -2779,7 +2788,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A111" s="2">
+      <c r="A111" s="3">
         <v>45838</v>
       </c>
       <c r="B111" s="1">
@@ -2799,7 +2808,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A112" s="2">
+      <c r="A112" s="3">
         <v>45838</v>
       </c>
       <c r="B112" s="1">
@@ -2819,7 +2828,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A113" s="2">
+      <c r="A113" s="3">
         <v>45838</v>
       </c>
       <c r="B113" s="1">
@@ -2839,7 +2848,7 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A114" s="2">
+      <c r="A114" s="3">
         <v>45838</v>
       </c>
       <c r="B114" s="1">
@@ -2859,7 +2868,7 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A115" s="2">
+      <c r="A115" s="3">
         <v>45838</v>
       </c>
       <c r="B115" s="1">
@@ -2879,7 +2888,7 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A116" s="2">
+      <c r="A116" s="3">
         <v>45838</v>
       </c>
       <c r="B116" s="1">
@@ -2899,7 +2908,7 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A117" s="2">
+      <c r="A117" s="3">
         <v>45838</v>
       </c>
       <c r="B117" s="1">
@@ -2919,7 +2928,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A118" s="2">
+      <c r="A118" s="3">
         <v>45838</v>
       </c>
       <c r="B118" s="1">
@@ -2939,7 +2948,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A119" s="2">
+      <c r="A119" s="3">
         <v>45838</v>
       </c>
       <c r="B119" s="1">
@@ -2959,7 +2968,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A120" s="2">
+      <c r="A120" s="3">
         <v>45838</v>
       </c>
       <c r="B120" s="1">
@@ -2979,7 +2988,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A121" s="2">
+      <c r="A121" s="3">
         <v>45838</v>
       </c>
       <c r="B121" s="1">
@@ -2999,7 +3008,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A122" s="2">
+      <c r="A122" s="3">
         <v>45838</v>
       </c>
       <c r="B122" s="1">
@@ -3019,7 +3028,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A123" s="2">
+      <c r="A123" s="3">
         <v>45838</v>
       </c>
       <c r="B123" s="1">
@@ -3039,7 +3048,7 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A124" s="2">
+      <c r="A124" s="3">
         <v>45838</v>
       </c>
       <c r="B124" s="1">
@@ -3059,7 +3068,7 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A125" s="2">
+      <c r="A125" s="3">
         <v>45838</v>
       </c>
       <c r="B125" s="1">
@@ -3079,7 +3088,7 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A126" s="2">
+      <c r="A126" s="3">
         <v>45838</v>
       </c>
       <c r="B126" s="1">
@@ -3099,7 +3108,7 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A127" s="2">
+      <c r="A127" s="3">
         <v>45838</v>
       </c>
       <c r="B127" s="1">
@@ -3119,7 +3128,7 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A128" s="2">
+      <c r="A128" s="3">
         <v>45838</v>
       </c>
       <c r="B128" s="1">
@@ -3139,7 +3148,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A129" s="2">
+      <c r="A129" s="3">
         <v>45838</v>
       </c>
       <c r="B129" s="1">
@@ -3159,7 +3168,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A130" s="2">
+      <c r="A130" s="3">
         <v>45838</v>
       </c>
       <c r="B130" s="1">
@@ -3179,7 +3188,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A131" s="2">
+      <c r="A131" s="3">
         <v>45838</v>
       </c>
       <c r="B131" s="1">
@@ -3199,7 +3208,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A132" s="2">
+      <c r="A132" s="3">
         <v>45838</v>
       </c>
       <c r="B132" s="1">
@@ -3219,7 +3228,7 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A133" s="2">
+      <c r="A133" s="3">
         <v>45838</v>
       </c>
       <c r="B133" s="1">
@@ -3239,7 +3248,7 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A134" s="2">
+      <c r="A134" s="3">
         <v>45838</v>
       </c>
       <c r="B134" s="1">
@@ -3259,7 +3268,7 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A135" s="2">
+      <c r="A135" s="3">
         <v>45838</v>
       </c>
       <c r="B135" s="1">
@@ -3279,7 +3288,7 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A136" s="2">
+      <c r="A136" s="3">
         <v>45838</v>
       </c>
       <c r="B136" s="1">
@@ -3299,7 +3308,7 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A137" s="2">
+      <c r="A137" s="3">
         <v>45838</v>
       </c>
       <c r="B137" s="1">
@@ -3319,7 +3328,7 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A138" s="2">
+      <c r="A138" s="3">
         <v>45838</v>
       </c>
       <c r="B138" s="1">
@@ -3339,7 +3348,7 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A139" s="2">
+      <c r="A139" s="3">
         <v>45838</v>
       </c>
       <c r="B139" s="1">
@@ -3359,7 +3368,7 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A140" s="2">
+      <c r="A140" s="3">
         <v>45838</v>
       </c>
       <c r="B140" s="1">
@@ -3379,7 +3388,7 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A141" s="2">
+      <c r="A141" s="3">
         <v>45838</v>
       </c>
       <c r="B141" s="1">
@@ -3399,7 +3408,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A142" s="2">
+      <c r="A142" s="3">
         <v>45838</v>
       </c>
       <c r="B142" s="1">
@@ -3419,7 +3428,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A143" s="2">
+      <c r="A143" s="3">
         <v>45838</v>
       </c>
       <c r="B143" s="1">
@@ -3439,7 +3448,7 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A144" s="2">
+      <c r="A144" s="3">
         <v>45838</v>
       </c>
       <c r="B144" s="1">
@@ -3459,7 +3468,7 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A145" s="2">
+      <c r="A145" s="3">
         <v>45838</v>
       </c>
       <c r="B145" s="1">
@@ -3479,7 +3488,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A146" s="2">
+      <c r="A146" s="3">
         <v>45838</v>
       </c>
       <c r="B146" s="1">
@@ -3499,7 +3508,7 @@
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A147" s="2">
+      <c r="A147" s="3">
         <v>45838</v>
       </c>
       <c r="B147" s="1">
@@ -3519,7 +3528,7 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A148" s="2">
+      <c r="A148" s="3">
         <v>45838</v>
       </c>
       <c r="B148" s="1">
@@ -3539,7 +3548,7 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A149" s="2">
+      <c r="A149" s="3">
         <v>45838</v>
       </c>
       <c r="B149" s="1">
@@ -3559,7 +3568,7 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A150" s="2">
+      <c r="A150" s="3">
         <v>45838</v>
       </c>
       <c r="B150" s="1">
@@ -3579,7 +3588,7 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A151" s="2">
+      <c r="A151" s="3">
         <v>45838</v>
       </c>
       <c r="B151" s="1">
@@ -3599,7 +3608,7 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A152" s="2">
+      <c r="A152" s="3">
         <v>45838</v>
       </c>
       <c r="B152" s="1">
@@ -3619,7 +3628,7 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A153" s="2">
+      <c r="A153" s="3">
         <v>45838</v>
       </c>
       <c r="B153" s="1">
@@ -3639,7 +3648,7 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A154" s="2">
+      <c r="A154" s="3">
         <v>45838</v>
       </c>
       <c r="B154" s="1">
@@ -3659,7 +3668,7 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A155" s="2">
+      <c r="A155" s="3">
         <v>45838</v>
       </c>
       <c r="B155" s="1">
@@ -3679,7 +3688,7 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A156" s="2">
+      <c r="A156" s="3">
         <v>45838</v>
       </c>
       <c r="B156" s="1">
@@ -3699,7 +3708,7 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A157" s="2">
+      <c r="A157" s="3">
         <v>45838</v>
       </c>
       <c r="B157" s="1">
@@ -3719,7 +3728,7 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A158" s="2">
+      <c r="A158" s="3">
         <v>45838</v>
       </c>
       <c r="B158" s="1">
@@ -3739,7 +3748,7 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A159" s="2">
+      <c r="A159" s="3">
         <v>45838</v>
       </c>
       <c r="B159" s="1">
@@ -3759,7 +3768,7 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A160" s="2">
+      <c r="A160" s="3">
         <v>45838</v>
       </c>
       <c r="B160" s="1">
@@ -3779,7 +3788,7 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A161" s="2">
+      <c r="A161" s="3">
         <v>45838</v>
       </c>
       <c r="B161" s="1">
@@ -3799,7 +3808,7 @@
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A162" s="2">
+      <c r="A162" s="3">
         <v>45838</v>
       </c>
       <c r="B162" s="1">
@@ -3819,7 +3828,7 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A163" s="2">
+      <c r="A163" s="3">
         <v>45838</v>
       </c>
       <c r="B163" s="1">
@@ -3839,7 +3848,7 @@
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A164" s="2">
+      <c r="A164" s="3">
         <v>45838</v>
       </c>
       <c r="B164" s="1">
@@ -3859,7 +3868,7 @@
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A165" s="2">
+      <c r="A165" s="3">
         <v>45838</v>
       </c>
       <c r="B165" s="1">
@@ -3879,7 +3888,7 @@
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A166" s="2">
+      <c r="A166" s="3">
         <v>45838</v>
       </c>
       <c r="B166" s="1">
@@ -3899,7 +3908,7 @@
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A167" s="2">
+      <c r="A167" s="3">
         <v>45838</v>
       </c>
       <c r="B167" s="1">
@@ -3919,7 +3928,7 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A168" s="2">
+      <c r="A168" s="3">
         <v>45838</v>
       </c>
       <c r="B168" s="1">
@@ -3939,7 +3948,7 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A169" s="2">
+      <c r="A169" s="3">
         <v>45838</v>
       </c>
       <c r="B169" s="1">
@@ -3959,7 +3968,7 @@
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A170" s="2">
+      <c r="A170" s="3">
         <v>45838</v>
       </c>
       <c r="B170" s="1">
@@ -3979,7 +3988,7 @@
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A171" s="2">
+      <c r="A171" s="3">
         <v>45838</v>
       </c>
       <c r="B171" s="1">
@@ -3999,7 +4008,7 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A172" s="2">
+      <c r="A172" s="3">
         <v>45838</v>
       </c>
       <c r="B172" s="1">
@@ -4019,7 +4028,7 @@
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A173" s="2">
+      <c r="A173" s="3">
         <v>45838</v>
       </c>
       <c r="B173" s="1">
@@ -4039,7 +4048,7 @@
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A174" s="2">
+      <c r="A174" s="3">
         <v>45838</v>
       </c>
       <c r="B174" s="1">
@@ -4059,7 +4068,7 @@
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A175" s="2">
+      <c r="A175" s="3">
         <v>45838</v>
       </c>
       <c r="B175" s="1">
@@ -4079,7 +4088,7 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A176" s="2">
+      <c r="A176" s="3">
         <v>45838</v>
       </c>
       <c r="B176" s="1">
@@ -4099,7 +4108,7 @@
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A177" s="2">
+      <c r="A177" s="3">
         <v>45838</v>
       </c>
       <c r="B177" s="1">
@@ -4119,7 +4128,7 @@
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A178" s="2">
+      <c r="A178" s="3">
         <v>45838</v>
       </c>
       <c r="B178" s="1">
@@ -4139,7 +4148,7 @@
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A179" s="2">
+      <c r="A179" s="3">
         <v>45838</v>
       </c>
       <c r="B179" s="1">
@@ -4159,7 +4168,7 @@
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A180" s="2">
+      <c r="A180" s="3">
         <v>45838</v>
       </c>
       <c r="B180" s="1">
@@ -4179,7 +4188,7 @@
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A181" s="2">
+      <c r="A181" s="3">
         <v>45838</v>
       </c>
       <c r="B181" s="1">
@@ -4199,7 +4208,7 @@
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A182" s="2">
+      <c r="A182" s="3">
         <v>45838</v>
       </c>
       <c r="B182" s="1">
@@ -4219,7 +4228,7 @@
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A183" s="2">
+      <c r="A183" s="3">
         <v>45838</v>
       </c>
       <c r="B183" s="1">
@@ -4239,7 +4248,7 @@
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A184" s="2">
+      <c r="A184" s="3">
         <v>45838</v>
       </c>
       <c r="B184" s="1">
@@ -4259,7 +4268,7 @@
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A185" s="2">
+      <c r="A185" s="3">
         <v>45838</v>
       </c>
       <c r="B185" s="1">
@@ -4279,7 +4288,7 @@
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A186" s="2">
+      <c r="A186" s="3">
         <v>45838</v>
       </c>
       <c r="B186" s="1">
@@ -4299,7 +4308,7 @@
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A187" s="2">
+      <c r="A187" s="3">
         <v>45838</v>
       </c>
       <c r="B187" s="1">
@@ -4319,7 +4328,7 @@
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A188" s="2">
+      <c r="A188" s="3">
         <v>45838</v>
       </c>
       <c r="B188" s="1">
@@ -4339,7 +4348,7 @@
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A189" s="2">
+      <c r="A189" s="3">
         <v>45838</v>
       </c>
       <c r="B189" s="1">
@@ -4359,7 +4368,7 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A190" s="2">
+      <c r="A190" s="3">
         <v>45838</v>
       </c>
       <c r="B190" s="1">
@@ -4379,7 +4388,7 @@
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A191" s="2">
+      <c r="A191" s="3">
         <v>45838</v>
       </c>
       <c r="B191" s="1">
@@ -4399,7 +4408,7 @@
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A192" s="2">
+      <c r="A192" s="3">
         <v>45838</v>
       </c>
       <c r="B192" s="1">
@@ -4419,7 +4428,7 @@
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A193" s="2">
+      <c r="A193" s="3">
         <v>45838</v>
       </c>
       <c r="B193" s="1">
@@ -4439,7 +4448,7 @@
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A194" s="2">
+      <c r="A194" s="3">
         <v>45838</v>
       </c>
       <c r="B194" s="1">
@@ -4459,7 +4468,7 @@
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A195" s="2">
+      <c r="A195" s="3">
         <v>45838</v>
       </c>
       <c r="B195" s="1">
@@ -4479,7 +4488,7 @@
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A196" s="2">
+      <c r="A196" s="3">
         <v>45838</v>
       </c>
       <c r="B196" s="1">
@@ -4499,7 +4508,7 @@
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A197" s="2">
+      <c r="A197" s="3">
         <v>45838</v>
       </c>
       <c r="B197" s="1">
@@ -4519,7 +4528,7 @@
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A198" s="2">
+      <c r="A198" s="3">
         <v>45838</v>
       </c>
       <c r="B198" s="1">
@@ -4539,7 +4548,7 @@
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A199" s="2">
+      <c r="A199" s="3">
         <v>45838</v>
       </c>
       <c r="B199" s="1">
@@ -4559,7 +4568,7 @@
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A200" s="2">
+      <c r="A200" s="3">
         <v>45838</v>
       </c>
       <c r="B200" s="1">
@@ -4579,7 +4588,7 @@
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A201" s="2">
+      <c r="A201" s="3">
         <v>45838</v>
       </c>
       <c r="B201" s="1">
@@ -4599,7 +4608,7 @@
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A202" s="2">
+      <c r="A202" s="3">
         <v>45838</v>
       </c>
       <c r="B202" s="1">
@@ -4617,7 +4626,7 @@
       <c r="F202" s="1"/>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A203" s="2">
+      <c r="A203" s="3">
         <v>45838</v>
       </c>
       <c r="B203" s="1">
@@ -4635,7 +4644,7 @@
       <c r="F203" s="1"/>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A204" s="2">
+      <c r="A204" s="3">
         <v>45838</v>
       </c>
       <c r="B204" s="1">
@@ -4653,7 +4662,7 @@
       <c r="F204" s="1"/>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A205" s="2">
+      <c r="A205" s="3">
         <v>45838</v>
       </c>
       <c r="B205" s="1">
@@ -4671,7 +4680,7 @@
       <c r="F205" s="1"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A206" s="2">
+      <c r="A206" s="3">
         <v>45838</v>
       </c>
       <c r="B206" s="1">
@@ -4689,7 +4698,7 @@
       <c r="F206" s="1"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A207" s="2">
+      <c r="A207" s="3">
         <v>45838</v>
       </c>
       <c r="B207" s="1">
@@ -4707,7 +4716,7 @@
       <c r="F207" s="1"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A208" s="2">
+      <c r="A208" s="3">
         <v>45838</v>
       </c>
       <c r="B208" s="1">
@@ -4725,7 +4734,7 @@
       <c r="F208" s="1"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A209" s="2">
+      <c r="A209" s="3">
         <v>45838</v>
       </c>
       <c r="B209" s="1">
@@ -4743,7 +4752,7 @@
       <c r="F209" s="1"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A210" s="2">
+      <c r="A210" s="3">
         <v>45838</v>
       </c>
       <c r="B210" s="1">
@@ -4761,7 +4770,7 @@
       <c r="F210" s="1"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A211" s="2">
+      <c r="A211" s="3">
         <v>45838</v>
       </c>
       <c r="B211" s="1">
@@ -4779,7 +4788,7 @@
       <c r="F211" s="1"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A212" s="2">
+      <c r="A212" s="3">
         <v>45838</v>
       </c>
       <c r="B212" s="1">
@@ -4797,7 +4806,7 @@
       <c r="F212" s="1"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A213" s="2">
+      <c r="A213" s="3">
         <v>45838</v>
       </c>
       <c r="B213" s="1">
@@ -4815,7 +4824,7 @@
       <c r="F213" s="1"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A214" s="2">
+      <c r="A214" s="3">
         <v>45838</v>
       </c>
       <c r="B214" s="1">
@@ -4833,7 +4842,7 @@
       <c r="F214" s="1"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A215" s="2">
+      <c r="A215" s="3">
         <v>45838</v>
       </c>
       <c r="B215" s="1">
@@ -4851,7 +4860,7 @@
       <c r="F215" s="1"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A216" s="2">
+      <c r="A216" s="3">
         <v>45838</v>
       </c>
       <c r="B216" s="1">
@@ -4869,7 +4878,7 @@
       <c r="F216" s="1"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A217" s="2">
+      <c r="A217" s="3">
         <v>45838</v>
       </c>
       <c r="B217" s="1">
@@ -4887,7 +4896,7 @@
       <c r="F217" s="1"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A218" s="2">
+      <c r="A218" s="3">
         <v>45838</v>
       </c>
       <c r="B218" s="1">
@@ -4905,7 +4914,7 @@
       <c r="F218" s="1"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A219" s="2">
+      <c r="A219" s="3">
         <v>45838</v>
       </c>
       <c r="B219" s="1">
@@ -4923,7 +4932,7 @@
       <c r="F219" s="1"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A220" s="2">
+      <c r="A220" s="3">
         <v>45838</v>
       </c>
       <c r="B220" s="1">
@@ -4941,7 +4950,7 @@
       <c r="F220" s="1"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A221" s="2">
+      <c r="A221" s="3">
         <v>45838</v>
       </c>
       <c r="B221" s="1">
@@ -4959,7 +4968,7 @@
       <c r="F221" s="1"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A222" s="2">
+      <c r="A222" s="3">
         <v>45838</v>
       </c>
       <c r="B222" s="1">
@@ -4977,7 +4986,7 @@
       <c r="F222" s="1"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A223" s="2">
+      <c r="A223" s="3">
         <v>45838</v>
       </c>
       <c r="B223" s="1">
@@ -4995,7 +5004,7 @@
       <c r="F223" s="1"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A224" s="2">
+      <c r="A224" s="3">
         <v>45838</v>
       </c>
       <c r="B224" s="1">
@@ -5013,7 +5022,7 @@
       <c r="F224" s="1"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A225" s="2">
+      <c r="A225" s="3">
         <v>45838</v>
       </c>
       <c r="B225" s="1">
@@ -5031,7 +5040,7 @@
       <c r="F225" s="1"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A226" s="2">
+      <c r="A226" s="3">
         <v>45838</v>
       </c>
       <c r="B226" s="1">
@@ -5049,7 +5058,7 @@
       <c r="F226" s="1"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A227" s="2">
+      <c r="A227" s="3">
         <v>45838</v>
       </c>
       <c r="B227" s="1">
@@ -5067,7 +5076,7 @@
       <c r="F227" s="1"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A228" s="2">
+      <c r="A228" s="3">
         <v>45838</v>
       </c>
       <c r="B228" s="1">
@@ -5085,7 +5094,7 @@
       <c r="F228" s="1"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A229" s="2">
+      <c r="A229" s="3">
         <v>45838</v>
       </c>
       <c r="B229" s="1">
@@ -5103,7 +5112,7 @@
       <c r="F229" s="1"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A230" s="2">
+      <c r="A230" s="3">
         <v>45838</v>
       </c>
       <c r="B230" s="1">
@@ -5121,7 +5130,7 @@
       <c r="F230" s="1"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A231" s="2">
+      <c r="A231" s="3">
         <v>45838</v>
       </c>
       <c r="B231" s="1">
@@ -5139,7 +5148,7 @@
       <c r="F231" s="1"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A232" s="2">
+      <c r="A232" s="3">
         <v>45838</v>
       </c>
       <c r="B232" s="1">
@@ -5157,7 +5166,7 @@
       <c r="F232" s="1"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A233" s="2">
+      <c r="A233" s="3">
         <v>45838</v>
       </c>
       <c r="B233" s="1">
@@ -5175,7 +5184,7 @@
       <c r="F233" s="1"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A234" s="2">
+      <c r="A234" s="3">
         <v>45838</v>
       </c>
       <c r="B234" s="1">
@@ -5193,7 +5202,7 @@
       <c r="F234" s="1"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A235" s="2">
+      <c r="A235" s="3">
         <v>45838</v>
       </c>
       <c r="B235" s="1">
@@ -5211,7 +5220,7 @@
       <c r="F235" s="1"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A236" s="2">
+      <c r="A236" s="3">
         <v>45838</v>
       </c>
       <c r="B236" s="1">
@@ -5229,7 +5238,7 @@
       <c r="F236" s="1"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A237" s="2">
+      <c r="A237" s="3">
         <v>45838</v>
       </c>
       <c r="B237" s="1">
@@ -5247,7 +5256,7 @@
       <c r="F237" s="1"/>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A238" s="2">
+      <c r="A238" s="3">
         <v>45838</v>
       </c>
       <c r="B238" s="1">
@@ -5265,7 +5274,7 @@
       <c r="F238" s="1"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A239" s="2">
+      <c r="A239" s="3">
         <v>45838</v>
       </c>
       <c r="B239" s="1">
@@ -5283,7 +5292,7 @@
       <c r="F239" s="1"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A240" s="2">
+      <c r="A240" s="3">
         <v>45838</v>
       </c>
       <c r="B240" s="1">
@@ -5301,7 +5310,7 @@
       <c r="F240" s="1"/>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A241" s="2">
+      <c r="A241" s="3">
         <v>45838</v>
       </c>
       <c r="B241" s="1">
@@ -5319,7 +5328,7 @@
       <c r="F241" s="1"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A242" s="2">
+      <c r="A242" s="3">
         <v>45838</v>
       </c>
       <c r="B242" s="1">
@@ -5337,7 +5346,7 @@
       <c r="F242" s="1"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A243" s="2">
+      <c r="A243" s="3">
         <v>45838</v>
       </c>
       <c r="B243" s="1">
@@ -5355,7 +5364,7 @@
       <c r="F243" s="1"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A244" s="2">
+      <c r="A244" s="3">
         <v>45838</v>
       </c>
       <c r="B244" s="1">
@@ -5373,7 +5382,7 @@
       <c r="F244" s="1"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A245" s="2">
+      <c r="A245" s="3">
         <v>45838</v>
       </c>
       <c r="B245" s="1">
@@ -5391,7 +5400,7 @@
       <c r="F245" s="1"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A246" s="2">
+      <c r="A246" s="3">
         <v>45838</v>
       </c>
       <c r="B246" s="1">
@@ -5409,7 +5418,7 @@
       <c r="F246" s="1"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A247" s="2">
+      <c r="A247" s="3">
         <v>45838</v>
       </c>
       <c r="B247" s="1">
@@ -5427,7 +5436,7 @@
       <c r="F247" s="1"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A248" s="2">
+      <c r="A248" s="3">
         <v>45838</v>
       </c>
       <c r="B248" s="1">
@@ -5445,7 +5454,7 @@
       <c r="F248" s="1"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A249" s="2">
+      <c r="A249" s="3">
         <v>45838</v>
       </c>
       <c r="B249" s="1">
@@ -5463,7 +5472,7 @@
       <c r="F249" s="1"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A250" s="2">
+      <c r="A250" s="3">
         <v>45838</v>
       </c>
       <c r="B250" s="1">
@@ -5481,7 +5490,7 @@
       <c r="F250" s="1"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A251" s="2">
+      <c r="A251" s="3">
         <v>45838</v>
       </c>
       <c r="B251" s="1">
@@ -5499,7 +5508,7 @@
       <c r="F251" s="1"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A252" s="2">
+      <c r="A252" s="3">
         <v>45838</v>
       </c>
       <c r="B252" s="1">
@@ -5517,7 +5526,7 @@
       <c r="F252" s="1"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A253" s="2">
+      <c r="A253" s="3">
         <v>45838</v>
       </c>
       <c r="B253" s="1">
@@ -5535,7 +5544,7 @@
       <c r="F253" s="1"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A254" s="2">
+      <c r="A254" s="3">
         <v>45838</v>
       </c>
       <c r="B254" s="1">
@@ -5553,7 +5562,7 @@
       <c r="F254" s="1"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A255" s="2">
+      <c r="A255" s="3">
         <v>45838</v>
       </c>
       <c r="B255" s="1">
@@ -5571,7 +5580,7 @@
       <c r="F255" s="1"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A256" s="2">
+      <c r="A256" s="3">
         <v>45838</v>
       </c>
       <c r="B256" s="1">
@@ -5589,7 +5598,7 @@
       <c r="F256" s="1"/>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A257" s="2">
+      <c r="A257" s="3">
         <v>45838</v>
       </c>
       <c r="B257" s="1">
@@ -5607,7 +5616,7 @@
       <c r="F257" s="1"/>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A258" s="2">
+      <c r="A258" s="3">
         <v>45838</v>
       </c>
       <c r="B258" s="1">
@@ -5625,7 +5634,7 @@
       <c r="F258" s="1"/>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A259" s="2">
+      <c r="A259" s="3">
         <v>45838</v>
       </c>
       <c r="B259" s="1">
@@ -5643,7 +5652,7 @@
       <c r="F259" s="1"/>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A260" s="2">
+      <c r="A260" s="3">
         <v>45838</v>
       </c>
       <c r="B260" s="1">
@@ -5661,7 +5670,7 @@
       <c r="F260" s="1"/>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A261" s="2">
+      <c r="A261" s="3">
         <v>45838</v>
       </c>
       <c r="B261" s="1">
@@ -5679,7 +5688,7 @@
       <c r="F261" s="1"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A262" s="2">
+      <c r="A262" s="3">
         <v>45838</v>
       </c>
       <c r="B262" s="1">
@@ -5697,7 +5706,7 @@
       <c r="F262" s="1"/>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A263" s="2">
+      <c r="A263" s="3">
         <v>45838</v>
       </c>
       <c r="B263" s="1">
@@ -5715,7 +5724,7 @@
       <c r="F263" s="1"/>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A264" s="2">
+      <c r="A264" s="3">
         <v>45838</v>
       </c>
       <c r="B264" s="1">
@@ -5733,7 +5742,7 @@
       <c r="F264" s="1"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A265" s="2">
+      <c r="A265" s="3">
         <v>45838</v>
       </c>
       <c r="B265" s="1">
@@ -5751,7 +5760,7 @@
       <c r="F265" s="1"/>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A266" s="2">
+      <c r="A266" s="3">
         <v>45838</v>
       </c>
       <c r="B266" s="1">
@@ -5769,7 +5778,7 @@
       <c r="F266" s="1"/>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A267" s="2">
+      <c r="A267" s="3">
         <v>45838</v>
       </c>
       <c r="B267" s="1">
@@ -5787,7 +5796,7 @@
       <c r="F267" s="1"/>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A268" s="2">
+      <c r="A268" s="3">
         <v>45838</v>
       </c>
       <c r="B268" s="1">
@@ -5805,7 +5814,7 @@
       <c r="F268" s="1"/>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A269" s="2">
+      <c r="A269" s="3">
         <v>45838</v>
       </c>
       <c r="B269" s="1">
@@ -5823,7 +5832,7 @@
       <c r="F269" s="1"/>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A270" s="2">
+      <c r="A270" s="3">
         <v>45838</v>
       </c>
       <c r="B270" s="1">
@@ -5841,7 +5850,7 @@
       <c r="F270" s="1"/>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A271" s="2">
+      <c r="A271" s="3">
         <v>45838</v>
       </c>
       <c r="B271" s="1">
@@ -5859,7 +5868,7 @@
       <c r="F271" s="1"/>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A272" s="2">
+      <c r="A272" s="3">
         <v>45838</v>
       </c>
       <c r="B272" s="1">
@@ -5877,7 +5886,7 @@
       <c r="F272" s="1"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A273" s="2">
+      <c r="A273" s="3">
         <v>45838</v>
       </c>
       <c r="B273" s="1">
@@ -5895,7 +5904,7 @@
       <c r="F273" s="1"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A274" s="2">
+      <c r="A274" s="3">
         <v>45838</v>
       </c>
       <c r="B274" s="1">
@@ -5913,7 +5922,7 @@
       <c r="F274" s="1"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A275" s="2">
+      <c r="A275" s="3">
         <v>45838</v>
       </c>
       <c r="B275" s="1">
@@ -5931,7 +5940,7 @@
       <c r="F275" s="1"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A276" s="2">
+      <c r="A276" s="3">
         <v>45838</v>
       </c>
       <c r="B276" s="1">
@@ -5949,7 +5958,7 @@
       <c r="F276" s="1"/>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A277" s="2">
+      <c r="A277" s="3">
         <v>45838</v>
       </c>
       <c r="B277" s="1">
@@ -5967,7 +5976,7 @@
       <c r="F277" s="1"/>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A278" s="2">
+      <c r="A278" s="3">
         <v>45838</v>
       </c>
       <c r="B278" s="1">
@@ -5985,7 +5994,7 @@
       <c r="F278" s="1"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A279" s="2">
+      <c r="A279" s="3">
         <v>45838</v>
       </c>
       <c r="B279" s="1">
@@ -6003,7 +6012,7 @@
       <c r="F279" s="1"/>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A280" s="2">
+      <c r="A280" s="3">
         <v>45838</v>
       </c>
       <c r="B280" s="1">
@@ -6021,7 +6030,7 @@
       <c r="F280" s="1"/>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A281" s="2">
+      <c r="A281" s="3">
         <v>45838</v>
       </c>
       <c r="B281" s="1">
@@ -6039,7 +6048,7 @@
       <c r="F281" s="1"/>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A282" s="2">
+      <c r="A282" s="3">
         <v>45838</v>
       </c>
       <c r="B282" s="1">
@@ -6057,7 +6066,7 @@
       <c r="F282" s="1"/>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A283" s="2">
+      <c r="A283" s="3">
         <v>45838</v>
       </c>
       <c r="B283" s="1">
@@ -6075,7 +6084,7 @@
       <c r="F283" s="1"/>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A284" s="2">
+      <c r="A284" s="3">
         <v>45838</v>
       </c>
       <c r="B284" s="1">
@@ -6093,7 +6102,7 @@
       <c r="F284" s="1"/>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A285" s="2">
+      <c r="A285" s="3">
         <v>45838</v>
       </c>
       <c r="B285" s="1">
@@ -6111,7 +6120,7 @@
       <c r="F285" s="1"/>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A286" s="2">
+      <c r="A286" s="3">
         <v>45838</v>
       </c>
       <c r="B286" s="1">
@@ -6129,7 +6138,7 @@
       <c r="F286" s="1"/>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A287" s="2">
+      <c r="A287" s="3">
         <v>45838</v>
       </c>
       <c r="B287" s="1">
@@ -6147,7 +6156,7 @@
       <c r="F287" s="1"/>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A288" s="2">
+      <c r="A288" s="3">
         <v>45838</v>
       </c>
       <c r="B288" s="1">
@@ -6165,7 +6174,7 @@
       <c r="F288" s="1"/>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A289" s="2">
+      <c r="A289" s="3">
         <v>45838</v>
       </c>
       <c r="B289" s="1">
@@ -6183,7 +6192,7 @@
       <c r="F289" s="1"/>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A290" s="2">
+      <c r="A290" s="3">
         <v>45838</v>
       </c>
       <c r="B290" s="1">
@@ -6201,7 +6210,7 @@
       <c r="F290" s="1"/>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A291" s="2">
+      <c r="A291" s="3">
         <v>45838</v>
       </c>
       <c r="B291" s="1">
@@ -6219,7 +6228,7 @@
       <c r="F291" s="1"/>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A292" s="2">
+      <c r="A292" s="3">
         <v>45838</v>
       </c>
       <c r="B292" s="1">
@@ -6237,7 +6246,7 @@
       <c r="F292" s="1"/>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A293" s="2">
+      <c r="A293" s="3">
         <v>45838</v>
       </c>
       <c r="B293" s="1">
@@ -6255,7 +6264,7 @@
       <c r="F293" s="1"/>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A294" s="2">
+      <c r="A294" s="3">
         <v>45838</v>
       </c>
       <c r="B294" s="1">
@@ -6273,7 +6282,7 @@
       <c r="F294" s="1"/>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A295" s="2">
+      <c r="A295" s="3">
         <v>45838</v>
       </c>
       <c r="B295" s="1">
@@ -6291,7 +6300,7 @@
       <c r="F295" s="1"/>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A296" s="2">
+      <c r="A296" s="3">
         <v>45838</v>
       </c>
       <c r="B296" s="1">
@@ -6309,7 +6318,7 @@
       <c r="F296" s="1"/>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A297" s="2">
+      <c r="A297" s="3">
         <v>45838</v>
       </c>
       <c r="B297" s="1">
@@ -6327,7 +6336,7 @@
       <c r="F297" s="1"/>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A298" s="2">
+      <c r="A298" s="3">
         <v>45838</v>
       </c>
       <c r="B298" s="1">
@@ -6345,7 +6354,7 @@
       <c r="F298" s="1"/>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A299" s="2">
+      <c r="A299" s="3">
         <v>45838</v>
       </c>
       <c r="B299" s="1">
@@ -6363,7 +6372,7 @@
       <c r="F299" s="1"/>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A300" s="2">
+      <c r="A300" s="3">
         <v>45838</v>
       </c>
       <c r="B300" s="1">
@@ -6381,7 +6390,7 @@
       <c r="F300" s="1"/>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A301" s="2">
+      <c r="A301" s="3">
         <v>45838</v>
       </c>
       <c r="B301" s="1">
@@ -6399,7 +6408,7 @@
       <c r="F301" s="1"/>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A302" s="2">
+      <c r="A302" s="3">
         <v>45838</v>
       </c>
       <c r="B302" s="1">
@@ -6417,7 +6426,7 @@
       <c r="F302" s="1"/>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A303" s="2">
+      <c r="A303" s="3">
         <v>45838</v>
       </c>
       <c r="B303" s="1">
@@ -6435,7 +6444,7 @@
       <c r="F303" s="1"/>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A304" s="2">
+      <c r="A304" s="3">
         <v>45838</v>
       </c>
       <c r="B304" s="1">
@@ -6453,7 +6462,7 @@
       <c r="F304" s="1"/>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A305" s="2">
+      <c r="A305" s="3">
         <v>45838</v>
       </c>
       <c r="B305" s="1">
@@ -6471,7 +6480,7 @@
       <c r="F305" s="1"/>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A306" s="2">
+      <c r="A306" s="3">
         <v>45838</v>
       </c>
       <c r="B306" s="1">
@@ -6489,7 +6498,7 @@
       <c r="F306" s="1"/>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A307" s="2">
+      <c r="A307" s="3">
         <v>45838</v>
       </c>
       <c r="B307" s="1">
@@ -6507,7 +6516,7 @@
       <c r="F307" s="1"/>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A308" s="2">
+      <c r="A308" s="3">
         <v>45838</v>
       </c>
       <c r="B308" s="1">
@@ -6525,7 +6534,7 @@
       <c r="F308" s="1"/>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A309" s="2">
+      <c r="A309" s="3">
         <v>45838</v>
       </c>
       <c r="B309" s="1">
@@ -6543,7 +6552,7 @@
       <c r="F309" s="1"/>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A310" s="2">
+      <c r="A310" s="3">
         <v>45838</v>
       </c>
       <c r="B310" s="1">
@@ -6561,7 +6570,7 @@
       <c r="F310" s="1"/>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A311" s="2">
+      <c r="A311" s="3">
         <v>45838</v>
       </c>
       <c r="B311" s="1">
@@ -6579,7 +6588,7 @@
       <c r="F311" s="1"/>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A312" s="2">
+      <c r="A312" s="3">
         <v>45838</v>
       </c>
       <c r="B312" s="1">
@@ -6597,7 +6606,7 @@
       <c r="F312" s="1"/>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A313" s="2">
+      <c r="A313" s="3">
         <v>45838</v>
       </c>
       <c r="B313" s="1">
@@ -6615,7 +6624,7 @@
       <c r="F313" s="1"/>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A314" s="2">
+      <c r="A314" s="3">
         <v>45838</v>
       </c>
       <c r="B314" s="1">
@@ -6633,7 +6642,7 @@
       <c r="F314" s="1"/>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A315" s="2">
+      <c r="A315" s="3">
         <v>45838</v>
       </c>
       <c r="B315" s="1">
@@ -6651,7 +6660,7 @@
       <c r="F315" s="1"/>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A316" s="2">
+      <c r="A316" s="3">
         <v>45838</v>
       </c>
       <c r="B316" s="1">
@@ -6669,7 +6678,7 @@
       <c r="F316" s="1"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A317" s="2">
+      <c r="A317" s="3">
         <v>45838</v>
       </c>
       <c r="B317" s="1">
@@ -6687,7 +6696,7 @@
       <c r="F317" s="1"/>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A318" s="2">
+      <c r="A318" s="3">
         <v>45838</v>
       </c>
       <c r="B318" s="1">
@@ -6705,7 +6714,7 @@
       <c r="F318" s="1"/>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A319" s="2">
+      <c r="A319" s="3">
         <v>45838</v>
       </c>
       <c r="B319" s="1">
@@ -6723,7 +6732,7 @@
       <c r="F319" s="1"/>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A320" s="2">
+      <c r="A320" s="3">
         <v>45838</v>
       </c>
       <c r="B320" s="1">
@@ -6741,7 +6750,7 @@
       <c r="F320" s="1"/>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A321" s="2">
+      <c r="A321" s="3">
         <v>45838</v>
       </c>
       <c r="B321" s="1">
@@ -6759,7 +6768,7 @@
       <c r="F321" s="1"/>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A322" s="2">
+      <c r="A322" s="3">
         <v>45838</v>
       </c>
       <c r="B322" s="1">
@@ -6777,7 +6786,7 @@
       <c r="F322" s="1"/>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A323" s="2">
+      <c r="A323" s="3">
         <v>45838</v>
       </c>
       <c r="B323" s="1">
@@ -6795,7 +6804,7 @@
       <c r="F323" s="1"/>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A324" s="2">
+      <c r="A324" s="3">
         <v>45838</v>
       </c>
       <c r="B324" s="1">
@@ -6813,7 +6822,7 @@
       <c r="F324" s="1"/>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A325" s="2">
+      <c r="A325" s="3">
         <v>45838</v>
       </c>
       <c r="B325" s="1">
@@ -6831,7 +6840,7 @@
       <c r="F325" s="1"/>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A326" s="2">
+      <c r="A326" s="3">
         <v>45838</v>
       </c>
       <c r="B326" s="1">
@@ -6849,7 +6858,7 @@
       <c r="F326" s="1"/>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A327" s="2">
+      <c r="A327" s="3">
         <v>45838</v>
       </c>
       <c r="B327" s="1">
@@ -6867,7 +6876,7 @@
       <c r="F327" s="1"/>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A328" s="2">
+      <c r="A328" s="3">
         <v>45838</v>
       </c>
       <c r="B328" s="1">
@@ -6885,7 +6894,7 @@
       <c r="F328" s="1"/>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A329" s="2">
+      <c r="A329" s="3">
         <v>45838</v>
       </c>
       <c r="B329" s="1">
@@ -6903,7 +6912,7 @@
       <c r="F329" s="1"/>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A330" s="2">
+      <c r="A330" s="3">
         <v>45838</v>
       </c>
       <c r="B330" s="1">
@@ -6921,7 +6930,7 @@
       <c r="F330" s="1"/>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A331" s="2">
+      <c r="A331" s="3">
         <v>45838</v>
       </c>
       <c r="B331" s="1">
@@ -6939,7 +6948,7 @@
       <c r="F331" s="1"/>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A332" s="2">
+      <c r="A332" s="3">
         <v>45838</v>
       </c>
       <c r="B332" s="1">
@@ -6957,7 +6966,7 @@
       <c r="F332" s="1"/>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A333" s="2">
+      <c r="A333" s="3">
         <v>45838</v>
       </c>
       <c r="B333" s="1">
@@ -6975,7 +6984,7 @@
       <c r="F333" s="1"/>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A334" s="2">
+      <c r="A334" s="3">
         <v>45838</v>
       </c>
       <c r="B334" s="1">
@@ -6993,7 +7002,7 @@
       <c r="F334" s="1"/>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A335" s="2">
+      <c r="A335" s="3">
         <v>45838</v>
       </c>
       <c r="B335" s="1">
@@ -7011,7 +7020,7 @@
       <c r="F335" s="1"/>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A336" s="2">
+      <c r="A336" s="3">
         <v>45838</v>
       </c>
       <c r="B336" s="1">
@@ -7029,7 +7038,7 @@
       <c r="F336" s="1"/>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A337" s="2">
+      <c r="A337" s="3">
         <v>45838</v>
       </c>
       <c r="B337" s="1">
@@ -7047,7 +7056,7 @@
       <c r="F337" s="1"/>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A338" s="2">
+      <c r="A338" s="3">
         <v>45838</v>
       </c>
       <c r="B338" s="1">
@@ -7065,7 +7074,7 @@
       <c r="F338" s="1"/>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A339" s="2">
+      <c r="A339" s="3">
         <v>45838</v>
       </c>
       <c r="B339" s="1">
@@ -7083,7 +7092,7 @@
       <c r="F339" s="1"/>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A340" s="2">
+      <c r="A340" s="3">
         <v>45838</v>
       </c>
       <c r="B340" s="1">
@@ -7101,7 +7110,7 @@
       <c r="F340" s="1"/>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A341" s="2">
+      <c r="A341" s="3">
         <v>45838</v>
       </c>
       <c r="B341" s="1">
@@ -7119,7 +7128,7 @@
       <c r="F341" s="1"/>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A342" s="2">
+      <c r="A342" s="3">
         <v>45838</v>
       </c>
       <c r="B342" s="1">
@@ -7137,7 +7146,7 @@
       <c r="F342" s="1"/>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A343" s="2">
+      <c r="A343" s="3">
         <v>45838</v>
       </c>
       <c r="B343" s="1">
@@ -7155,7 +7164,7 @@
       <c r="F343" s="1"/>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A344" s="2">
+      <c r="A344" s="3">
         <v>45838</v>
       </c>
       <c r="B344" s="1">
@@ -7173,7 +7182,7 @@
       <c r="F344" s="1"/>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A345" s="2">
+      <c r="A345" s="3">
         <v>45838</v>
       </c>
       <c r="B345" s="1">
@@ -7191,7 +7200,7 @@
       <c r="F345" s="1"/>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A346" s="2">
+      <c r="A346" s="3">
         <v>45838</v>
       </c>
       <c r="B346" s="1">
@@ -7209,7 +7218,7 @@
       <c r="F346" s="1"/>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A347" s="2">
+      <c r="A347" s="3">
         <v>45838</v>
       </c>
       <c r="B347" s="1">
@@ -7227,7 +7236,7 @@
       <c r="F347" s="1"/>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A348" s="2">
+      <c r="A348" s="3">
         <v>45838</v>
       </c>
       <c r="B348" s="1">
@@ -7245,7 +7254,7 @@
       <c r="F348" s="1"/>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A349" s="2">
+      <c r="A349" s="3">
         <v>45838</v>
       </c>
       <c r="B349" s="1">
@@ -7263,7 +7272,7 @@
       <c r="F349" s="1"/>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A350" s="2">
+      <c r="A350" s="3">
         <v>45838</v>
       </c>
       <c r="B350" s="1">
@@ -7281,7 +7290,7 @@
       <c r="F350" s="1"/>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A351" s="2">
+      <c r="A351" s="3">
         <v>45838</v>
       </c>
       <c r="B351" s="1">
@@ -7299,7 +7308,7 @@
       <c r="F351" s="1"/>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A352" s="2">
+      <c r="A352" s="3">
         <v>45838</v>
       </c>
       <c r="B352" s="1">
@@ -7317,7 +7326,7 @@
       <c r="F352" s="1"/>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A353" s="2">
+      <c r="A353" s="3">
         <v>45838</v>
       </c>
       <c r="B353" s="1">
@@ -7335,7 +7344,7 @@
       <c r="F353" s="1"/>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A354" s="2">
+      <c r="A354" s="3">
         <v>45838</v>
       </c>
       <c r="B354" s="1">
@@ -7353,7 +7362,7 @@
       <c r="F354" s="1"/>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A355" s="2">
+      <c r="A355" s="3">
         <v>45838</v>
       </c>
       <c r="B355" s="1">
@@ -7371,7 +7380,7 @@
       <c r="F355" s="1"/>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A356" s="2">
+      <c r="A356" s="3">
         <v>45838</v>
       </c>
       <c r="B356" s="1">
@@ -7389,7 +7398,7 @@
       <c r="F356" s="1"/>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A357" s="2">
+      <c r="A357" s="3">
         <v>45838</v>
       </c>
       <c r="B357" s="1">
@@ -7407,7 +7416,7 @@
       <c r="F357" s="1"/>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A358" s="2">
+      <c r="A358" s="3">
         <v>45838</v>
       </c>
       <c r="B358" s="1">
@@ -7425,7 +7434,7 @@
       <c r="F358" s="1"/>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A359" s="2">
+      <c r="A359" s="3">
         <v>45838</v>
       </c>
       <c r="B359" s="1">
@@ -7443,7 +7452,7 @@
       <c r="F359" s="1"/>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A360" s="2">
+      <c r="A360" s="3">
         <v>45838</v>
       </c>
       <c r="B360" s="1">
@@ -7461,7 +7470,7 @@
       <c r="F360" s="1"/>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A361" s="2">
+      <c r="A361" s="3">
         <v>45838</v>
       </c>
       <c r="B361" s="1">
@@ -7479,7 +7488,7 @@
       <c r="F361" s="1"/>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A362" s="2">
+      <c r="A362" s="3">
         <v>45838</v>
       </c>
       <c r="B362" s="1">
@@ -7497,7 +7506,7 @@
       <c r="F362" s="1"/>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A363" s="2">
+      <c r="A363" s="3">
         <v>45838</v>
       </c>
       <c r="B363" s="1">
@@ -7515,7 +7524,7 @@
       <c r="F363" s="1"/>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A364" s="2">
+      <c r="A364" s="3">
         <v>45838</v>
       </c>
       <c r="B364" s="1">
@@ -7533,7 +7542,7 @@
       <c r="F364" s="1"/>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A365" s="2">
+      <c r="A365" s="3">
         <v>45838</v>
       </c>
       <c r="B365" s="1">
@@ -7551,7 +7560,7 @@
       <c r="F365" s="1"/>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A366" s="2">
+      <c r="A366" s="3">
         <v>45838</v>
       </c>
       <c r="B366" s="1">
@@ -7569,7 +7578,7 @@
       <c r="F366" s="1"/>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A367" s="2">
+      <c r="A367" s="3">
         <v>45838</v>
       </c>
       <c r="B367" s="1">
@@ -7587,7 +7596,7 @@
       <c r="F367" s="1"/>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A368" s="2">
+      <c r="A368" s="3">
         <v>45838</v>
       </c>
       <c r="B368" s="1">
@@ -7605,7 +7614,7 @@
       <c r="F368" s="1"/>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A369" s="2">
+      <c r="A369" s="3">
         <v>45838</v>
       </c>
       <c r="B369" s="1">
@@ -7623,7 +7632,7 @@
       <c r="F369" s="1"/>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A370" s="2">
+      <c r="A370" s="3">
         <v>45838</v>
       </c>
       <c r="B370" s="1">
@@ -7641,7 +7650,7 @@
       <c r="F370" s="1"/>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A371" s="2">
+      <c r="A371" s="3">
         <v>45838</v>
       </c>
       <c r="B371" s="1">
@@ -7659,7 +7668,7 @@
       <c r="F371" s="1"/>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A372" s="2">
+      <c r="A372" s="3">
         <v>45838</v>
       </c>
       <c r="B372" s="1">
@@ -7677,7 +7686,7 @@
       <c r="F372" s="1"/>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A373" s="2">
+      <c r="A373" s="3">
         <v>45838</v>
       </c>
       <c r="B373" s="1">
@@ -7695,7 +7704,7 @@
       <c r="F373" s="1"/>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A374" s="2">
+      <c r="A374" s="3">
         <v>45838</v>
       </c>
       <c r="B374" s="1">
@@ -7713,7 +7722,7 @@
       <c r="F374" s="1"/>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A375" s="2">
+      <c r="A375" s="3">
         <v>45838</v>
       </c>
       <c r="B375" s="1">
@@ -7731,7 +7740,7 @@
       <c r="F375" s="1"/>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A376" s="2">
+      <c r="A376" s="3">
         <v>45838</v>
       </c>
       <c r="B376" s="1">
@@ -7749,7 +7758,7 @@
       <c r="F376" s="1"/>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A377" s="2">
+      <c r="A377" s="3">
         <v>45838</v>
       </c>
       <c r="B377" s="1">
@@ -7767,7 +7776,7 @@
       <c r="F377" s="1"/>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A378" s="2">
+      <c r="A378" s="3">
         <v>45838</v>
       </c>
       <c r="B378" s="1">
@@ -7785,7 +7794,7 @@
       <c r="F378" s="1"/>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A379" s="2">
+      <c r="A379" s="3">
         <v>45838</v>
       </c>
       <c r="B379" s="1">
@@ -7803,7 +7812,7 @@
       <c r="F379" s="1"/>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A380" s="2">
+      <c r="A380" s="3">
         <v>45838</v>
       </c>
       <c r="B380" s="1">
@@ -7821,7 +7830,7 @@
       <c r="F380" s="1"/>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A381" s="2">
+      <c r="A381" s="3">
         <v>45838</v>
       </c>
       <c r="B381" s="1">
@@ -7839,7 +7848,7 @@
       <c r="F381" s="1"/>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A382" s="2">
+      <c r="A382" s="3">
         <v>45838</v>
       </c>
       <c r="B382" s="1">
@@ -7857,7 +7866,7 @@
       <c r="F382" s="1"/>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A383" s="2">
+      <c r="A383" s="3">
         <v>45838</v>
       </c>
       <c r="B383" s="1">
@@ -7875,7 +7884,7 @@
       <c r="F383" s="1"/>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A384" s="2">
+      <c r="A384" s="3">
         <v>45838</v>
       </c>
       <c r="B384" s="1">
@@ -7893,7 +7902,7 @@
       <c r="F384" s="1"/>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A385" s="2">
+      <c r="A385" s="3">
         <v>45838</v>
       </c>
       <c r="B385" s="1">
@@ -7911,7 +7920,7 @@
       <c r="F385" s="1"/>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A386" s="2">
+      <c r="A386" s="3">
         <v>45838</v>
       </c>
       <c r="B386" s="1">
@@ -7929,7 +7938,7 @@
       <c r="F386" s="1"/>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A387" s="2">
+      <c r="A387" s="3">
         <v>45838</v>
       </c>
       <c r="B387" s="1">
@@ -7947,7 +7956,7 @@
       <c r="F387" s="1"/>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A388" s="2">
+      <c r="A388" s="3">
         <v>45838</v>
       </c>
       <c r="B388" s="1">
@@ -7965,7 +7974,7 @@
       <c r="F388" s="1"/>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A389" s="2">
+      <c r="A389" s="3">
         <v>45838</v>
       </c>
       <c r="B389" s="1">
@@ -7983,7 +7992,7 @@
       <c r="F389" s="1"/>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A390" s="2">
+      <c r="A390" s="3">
         <v>45838</v>
       </c>
       <c r="B390" s="1">
@@ -8001,7 +8010,7 @@
       <c r="F390" s="1"/>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A391" s="2">
+      <c r="A391" s="3">
         <v>45838</v>
       </c>
       <c r="B391" s="1">
@@ -8019,7 +8028,7 @@
       <c r="F391" s="1"/>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A392" s="2">
+      <c r="A392" s="3">
         <v>45838</v>
       </c>
       <c r="B392" s="1">
@@ -8037,7 +8046,7 @@
       <c r="F392" s="1"/>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A393" s="2">
+      <c r="A393" s="3">
         <v>45838</v>
       </c>
       <c r="B393" s="1">
@@ -8055,7 +8064,7 @@
       <c r="F393" s="1"/>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A394" s="2">
+      <c r="A394" s="3">
         <v>45838</v>
       </c>
       <c r="B394" s="1">
@@ -8073,7 +8082,7 @@
       <c r="F394" s="1"/>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A395" s="2">
+      <c r="A395" s="3">
         <v>45838</v>
       </c>
       <c r="B395" s="1">
@@ -8091,7 +8100,7 @@
       <c r="F395" s="1"/>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A396" s="2">
+      <c r="A396" s="3">
         <v>45838</v>
       </c>
       <c r="B396" s="1">
@@ -8109,7 +8118,7 @@
       <c r="F396" s="1"/>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A397" s="2">
+      <c r="A397" s="3">
         <v>45838</v>
       </c>
       <c r="B397" s="1">
@@ -8127,7 +8136,7 @@
       <c r="F397" s="1"/>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A398" s="2">
+      <c r="A398" s="3">
         <v>45838</v>
       </c>
       <c r="B398" s="1">
@@ -8145,7 +8154,7 @@
       <c r="F398" s="1"/>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A399" s="2">
+      <c r="A399" s="3">
         <v>45838</v>
       </c>
       <c r="B399" s="1">
@@ -8163,7 +8172,7 @@
       <c r="F399" s="1"/>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A400" s="2">
+      <c r="A400" s="3">
         <v>45838</v>
       </c>
       <c r="B400" s="1">
@@ -8181,7 +8190,7 @@
       <c r="F400" s="1"/>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A401" s="2">
+      <c r="A401" s="3">
         <v>45838</v>
       </c>
       <c r="B401" s="1">
@@ -8199,7 +8208,7 @@
       <c r="F401" s="1"/>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A402" s="2">
+      <c r="A402" s="3">
         <v>45838</v>
       </c>
       <c r="B402" s="1">
@@ -8217,7 +8226,7 @@
       <c r="F402" s="1"/>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A403" s="2">
+      <c r="A403" s="3">
         <v>45838</v>
       </c>
       <c r="B403" s="1">
@@ -8235,7 +8244,7 @@
       <c r="F403" s="1"/>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A404" s="2">
+      <c r="A404" s="3">
         <v>45838</v>
       </c>
       <c r="B404" s="1">
@@ -8253,7 +8262,7 @@
       <c r="F404" s="1"/>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A405" s="2">
+      <c r="A405" s="3">
         <v>45838</v>
       </c>
       <c r="B405" s="1">
@@ -8271,7 +8280,7 @@
       <c r="F405" s="1"/>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A406" s="2">
+      <c r="A406" s="3">
         <v>45838</v>
       </c>
       <c r="B406" s="1">
@@ -8289,7 +8298,7 @@
       <c r="F406" s="1"/>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A407" s="2">
+      <c r="A407" s="3">
         <v>45838</v>
       </c>
       <c r="B407" s="1">
@@ -8307,7 +8316,7 @@
       <c r="F407" s="1"/>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A408" s="2">
+      <c r="A408" s="3">
         <v>45838</v>
       </c>
       <c r="B408" s="1">
@@ -8325,7 +8334,7 @@
       <c r="F408" s="1"/>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A409" s="2">
+      <c r="A409" s="3">
         <v>45838</v>
       </c>
       <c r="B409" s="1">
@@ -8343,7 +8352,7 @@
       <c r="F409" s="1"/>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A410" s="2">
+      <c r="A410" s="3">
         <v>45838</v>
       </c>
       <c r="B410" s="1">
@@ -8361,7 +8370,7 @@
       <c r="F410" s="1"/>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A411" s="2">
+      <c r="A411" s="3">
         <v>45838</v>
       </c>
       <c r="B411" s="1">
@@ -8379,7 +8388,7 @@
       <c r="F411" s="1"/>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A412" s="2">
+      <c r="A412" s="3">
         <v>45838</v>
       </c>
       <c r="B412" s="1">
@@ -8397,7 +8406,7 @@
       <c r="F412" s="1"/>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A413" s="2">
+      <c r="A413" s="3">
         <v>45838</v>
       </c>
       <c r="B413" s="1">
@@ -8415,7 +8424,7 @@
       <c r="F413" s="1"/>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A414" s="2">
+      <c r="A414" s="3">
         <v>45838</v>
       </c>
       <c r="B414" s="1">
@@ -8433,7 +8442,7 @@
       <c r="F414" s="1"/>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A415" s="2">
+      <c r="A415" s="3">
         <v>45838</v>
       </c>
       <c r="B415" s="1">
@@ -8451,7 +8460,7 @@
       <c r="F415" s="1"/>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A416" s="2">
+      <c r="A416" s="3">
         <v>45838</v>
       </c>
       <c r="B416" s="1">
@@ -8469,7 +8478,7 @@
       <c r="F416" s="1"/>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A417" s="2">
+      <c r="A417" s="3">
         <v>45838</v>
       </c>
       <c r="B417" s="1">
@@ -8487,7 +8496,7 @@
       <c r="F417" s="1"/>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A418" s="2">
+      <c r="A418" s="3">
         <v>45838</v>
       </c>
       <c r="B418" s="1">
@@ -8505,7 +8514,7 @@
       <c r="F418" s="1"/>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A419" s="2">
+      <c r="A419" s="3">
         <v>45838</v>
       </c>
       <c r="B419" s="1">
@@ -8523,7 +8532,7 @@
       <c r="F419" s="1"/>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A420" s="2">
+      <c r="A420" s="3">
         <v>45838</v>
       </c>
       <c r="B420" s="1">
@@ -8541,7 +8550,7 @@
       <c r="F420" s="1"/>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A421" s="2">
+      <c r="A421" s="3">
         <v>45838</v>
       </c>
       <c r="B421" s="1">
@@ -8559,7 +8568,7 @@
       <c r="F421" s="1"/>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A422" s="2">
+      <c r="A422" s="3">
         <v>45838</v>
       </c>
       <c r="B422" s="1">
@@ -8577,7 +8586,7 @@
       <c r="F422" s="1"/>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A423" s="2">
+      <c r="A423" s="3">
         <v>45838</v>
       </c>
       <c r="B423" s="1">
@@ -8595,7 +8604,7 @@
       <c r="F423" s="1"/>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A424" s="2">
+      <c r="A424" s="3">
         <v>45838</v>
       </c>
       <c r="B424" s="1">
@@ -8613,7 +8622,7 @@
       <c r="F424" s="1"/>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A425" s="2">
+      <c r="A425" s="3">
         <v>45838</v>
       </c>
       <c r="B425" s="1">
@@ -8631,7 +8640,7 @@
       <c r="F425" s="1"/>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A426" s="2">
+      <c r="A426" s="3">
         <v>45838</v>
       </c>
       <c r="B426" s="1">
@@ -8649,7 +8658,7 @@
       <c r="F426" s="1"/>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A427" s="2">
+      <c r="A427" s="3">
         <v>45838</v>
       </c>
       <c r="B427" s="1">
@@ -8667,7 +8676,7 @@
       <c r="F427" s="1"/>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A428" s="2">
+      <c r="A428" s="3">
         <v>45838</v>
       </c>
       <c r="B428" s="1">
@@ -8685,7 +8694,7 @@
       <c r="F428" s="1"/>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A429" s="2">
+      <c r="A429" s="3">
         <v>45838</v>
       </c>
       <c r="B429" s="1">
@@ -8703,7 +8712,7 @@
       <c r="F429" s="1"/>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A430" s="2">
+      <c r="A430" s="3">
         <v>45838</v>
       </c>
       <c r="B430" s="1">
@@ -8721,7 +8730,7 @@
       <c r="F430" s="1"/>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A431" s="2">
+      <c r="A431" s="3">
         <v>45838</v>
       </c>
       <c r="B431" s="1">
@@ -8739,7 +8748,7 @@
       <c r="F431" s="1"/>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A432" s="2">
+      <c r="A432" s="3">
         <v>45838</v>
       </c>
       <c r="B432" s="1">
@@ -8757,7 +8766,7 @@
       <c r="F432" s="1"/>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A433" s="2">
+      <c r="A433" s="3">
         <v>45838</v>
       </c>
       <c r="B433" s="1">
@@ -8775,7 +8784,7 @@
       <c r="F433" s="1"/>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A434" s="2">
+      <c r="A434" s="3">
         <v>45838</v>
       </c>
       <c r="B434" s="1">
@@ -8793,7 +8802,7 @@
       <c r="F434" s="1"/>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A435" s="2">
+      <c r="A435" s="3">
         <v>45838</v>
       </c>
       <c r="B435" s="1">
@@ -8811,7 +8820,7 @@
       <c r="F435" s="1"/>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A436" s="2">
+      <c r="A436" s="3">
         <v>45838</v>
       </c>
       <c r="B436" s="1">
@@ -8829,7 +8838,7 @@
       <c r="F436" s="1"/>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A437" s="2">
+      <c r="A437" s="3">
         <v>45838</v>
       </c>
       <c r="B437" s="1">
@@ -8847,7 +8856,7 @@
       <c r="F437" s="1"/>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A438" s="2">
+      <c r="A438" s="3">
         <v>45838</v>
       </c>
       <c r="B438" s="1">
@@ -8865,7 +8874,7 @@
       <c r="F438" s="1"/>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A439" s="2">
+      <c r="A439" s="3">
         <v>45838</v>
       </c>
       <c r="B439" s="1">
@@ -8883,7 +8892,7 @@
       <c r="F439" s="1"/>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A440" s="2">
+      <c r="A440" s="3">
         <v>45838</v>
       </c>
       <c r="B440" s="1">
@@ -8901,7 +8910,7 @@
       <c r="F440" s="1"/>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A441" s="2">
+      <c r="A441" s="3">
         <v>45838</v>
       </c>
       <c r="B441" s="1">
@@ -8919,7 +8928,7 @@
       <c r="F441" s="1"/>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A442" s="2">
+      <c r="A442" s="3">
         <v>45838</v>
       </c>
       <c r="B442" s="1">
@@ -8937,7 +8946,7 @@
       <c r="F442" s="1"/>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A443" s="2">
+      <c r="A443" s="3">
         <v>45838</v>
       </c>
       <c r="B443" s="1">
@@ -8955,7 +8964,7 @@
       <c r="F443" s="1"/>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A444" s="2">
+      <c r="A444" s="3">
         <v>45838</v>
       </c>
       <c r="B444" s="1">
@@ -8973,7 +8982,7 @@
       <c r="F444" s="1"/>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A445" s="2">
+      <c r="A445" s="3">
         <v>45838</v>
       </c>
       <c r="B445" s="1">
@@ -8991,7 +9000,7 @@
       <c r="F445" s="1"/>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A446" s="2">
+      <c r="A446" s="3">
         <v>45838</v>
       </c>
       <c r="B446" s="1">
@@ -9009,7 +9018,7 @@
       <c r="F446" s="1"/>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A447" s="2">
+      <c r="A447" s="3">
         <v>45838</v>
       </c>
       <c r="B447" s="1">
@@ -9027,7 +9036,7 @@
       <c r="F447" s="1"/>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A448" s="2">
+      <c r="A448" s="3">
         <v>45838</v>
       </c>
       <c r="B448" s="1">
@@ -9045,7 +9054,7 @@
       <c r="F448" s="1"/>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A449" s="2">
+      <c r="A449" s="3">
         <v>45838</v>
       </c>
       <c r="B449" s="1">
@@ -9063,7 +9072,7 @@
       <c r="F449" s="1"/>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A450" s="2">
+      <c r="A450" s="3">
         <v>45838</v>
       </c>
       <c r="B450" s="1">
@@ -9081,7 +9090,7 @@
       <c r="F450" s="1"/>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A451" s="2">
+      <c r="A451" s="3">
         <v>45838</v>
       </c>
       <c r="B451" s="1">
@@ -9099,7 +9108,7 @@
       <c r="F451" s="1"/>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A452" s="2">
+      <c r="A452" s="3">
         <v>45838</v>
       </c>
       <c r="B452" s="1">
@@ -9117,7 +9126,7 @@
       <c r="F452" s="1"/>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A453" s="2">
+      <c r="A453" s="3">
         <v>45838</v>
       </c>
       <c r="B453" s="1">
@@ -9135,7 +9144,7 @@
       <c r="F453" s="1"/>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A454" s="2">
+      <c r="A454" s="3">
         <v>45838</v>
       </c>
       <c r="B454" s="1">
@@ -9153,7 +9162,7 @@
       <c r="F454" s="1"/>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A455" s="2">
+      <c r="A455" s="3">
         <v>45838</v>
       </c>
       <c r="B455" s="1">
@@ -9171,7 +9180,7 @@
       <c r="F455" s="1"/>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A456" s="2">
+      <c r="A456" s="3">
         <v>45838</v>
       </c>
       <c r="B456" s="1">
@@ -9189,7 +9198,7 @@
       <c r="F456" s="1"/>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A457" s="2">
+      <c r="A457" s="3">
         <v>45838</v>
       </c>
       <c r="B457" s="1">
@@ -9207,7 +9216,7 @@
       <c r="F457" s="1"/>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A458" s="2">
+      <c r="A458" s="3">
         <v>45838</v>
       </c>
       <c r="B458" s="1">
@@ -9225,7 +9234,7 @@
       <c r="F458" s="1"/>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A459" s="2">
+      <c r="A459" s="3">
         <v>45838</v>
       </c>
       <c r="B459" s="1">
@@ -9243,7 +9252,7 @@
       <c r="F459" s="1"/>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A460" s="2">
+      <c r="A460" s="3">
         <v>45838</v>
       </c>
       <c r="B460" s="1">
@@ -9261,7 +9270,7 @@
       <c r="F460" s="1"/>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A461" s="2">
+      <c r="A461" s="3">
         <v>45838</v>
       </c>
       <c r="B461" s="1">
@@ -9279,7 +9288,7 @@
       <c r="F461" s="1"/>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A462" s="2">
+      <c r="A462" s="3">
         <v>45838</v>
       </c>
       <c r="B462" s="1">
@@ -9297,7 +9306,7 @@
       <c r="F462" s="1"/>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A463" s="2">
+      <c r="A463" s="3">
         <v>45838</v>
       </c>
       <c r="B463" s="1">
@@ -9315,7 +9324,7 @@
       <c r="F463" s="1"/>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A464" s="2">
+      <c r="A464" s="3">
         <v>45838</v>
       </c>
       <c r="B464" s="1">
@@ -9333,7 +9342,7 @@
       <c r="F464" s="1"/>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A465" s="2">
+      <c r="A465" s="3">
         <v>45838</v>
       </c>
       <c r="B465" s="1">
@@ -9351,7 +9360,7 @@
       <c r="F465" s="1"/>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A466" s="2">
+      <c r="A466" s="3">
         <v>45838</v>
       </c>
       <c r="B466" s="1">
@@ -9369,7 +9378,7 @@
       <c r="F466" s="1"/>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A467" s="2">
+      <c r="A467" s="3">
         <v>45838</v>
       </c>
       <c r="B467" s="1">
@@ -9387,7 +9396,7 @@
       <c r="F467" s="1"/>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A468" s="2">
+      <c r="A468" s="3">
         <v>45838</v>
       </c>
       <c r="B468" s="1">
@@ -9405,7 +9414,7 @@
       <c r="F468" s="1"/>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A469" s="2">
+      <c r="A469" s="3">
         <v>45838</v>
       </c>
       <c r="B469" s="1">
@@ -9423,7 +9432,7 @@
       <c r="F469" s="1"/>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A470" s="2">
+      <c r="A470" s="3">
         <v>45838</v>
       </c>
       <c r="B470" s="1">
@@ -9441,7 +9450,7 @@
       <c r="F470" s="1"/>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A471" s="2">
+      <c r="A471" s="3">
         <v>45838</v>
       </c>
       <c r="B471" s="1">
@@ -9459,7 +9468,7 @@
       <c r="F471" s="1"/>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A472" s="2">
+      <c r="A472" s="3">
         <v>45838</v>
       </c>
       <c r="B472" s="1">
@@ -9477,7 +9486,7 @@
       <c r="F472" s="1"/>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A473" s="2">
+      <c r="A473" s="3">
         <v>45838</v>
       </c>
       <c r="B473" s="1">
@@ -9495,7 +9504,7 @@
       <c r="F473" s="1"/>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A474" s="2">
+      <c r="A474" s="3">
         <v>45838</v>
       </c>
       <c r="B474" s="1">
@@ -9513,7 +9522,7 @@
       <c r="F474" s="1"/>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A475" s="2">
+      <c r="A475" s="3">
         <v>45838</v>
       </c>
       <c r="B475" s="1">
@@ -9531,7 +9540,7 @@
       <c r="F475" s="1"/>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A476" s="2">
+      <c r="A476" s="3">
         <v>45838</v>
       </c>
       <c r="B476" s="1">
@@ -9549,7 +9558,7 @@
       <c r="F476" s="1"/>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A477" s="2">
+      <c r="A477" s="3">
         <v>45838</v>
       </c>
       <c r="B477" s="1">
@@ -9567,7 +9576,7 @@
       <c r="F477" s="1"/>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A478" s="2">
+      <c r="A478" s="3">
         <v>45838</v>
       </c>
       <c r="B478" s="1">
@@ -9585,7 +9594,7 @@
       <c r="F478" s="1"/>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A479" s="2">
+      <c r="A479" s="3">
         <v>45838</v>
       </c>
       <c r="B479" s="1">
@@ -9603,7 +9612,7 @@
       <c r="F479" s="1"/>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A480" s="2">
+      <c r="A480" s="3">
         <v>45838</v>
       </c>
       <c r="B480" s="1">
@@ -9621,7 +9630,7 @@
       <c r="F480" s="1"/>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A481" s="2">
+      <c r="A481" s="3">
         <v>45838</v>
       </c>
       <c r="B481" s="1">
@@ -9639,7 +9648,7 @@
       <c r="F481" s="1"/>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A482" s="2">
+      <c r="A482" s="3">
         <v>45838</v>
       </c>
       <c r="B482" s="1">
@@ -9657,7 +9666,7 @@
       <c r="F482" s="1"/>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A483" s="2">
+      <c r="A483" s="3">
         <v>45838</v>
       </c>
       <c r="B483" s="1">
@@ -9675,7 +9684,7 @@
       <c r="F483" s="1"/>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A484" s="2">
+      <c r="A484" s="3">
         <v>45838</v>
       </c>
       <c r="B484" s="1">
@@ -9693,7 +9702,7 @@
       <c r="F484" s="1"/>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A485" s="2">
+      <c r="A485" s="3">
         <v>45838</v>
       </c>
       <c r="B485" s="1">
@@ -9711,7 +9720,7 @@
       <c r="F485" s="1"/>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A486" s="2">
+      <c r="A486" s="3">
         <v>45838</v>
       </c>
       <c r="B486" s="1">
@@ -9729,7 +9738,7 @@
       <c r="F486" s="1"/>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A487" s="2">
+      <c r="A487" s="3">
         <v>45838</v>
       </c>
       <c r="B487" s="1">
@@ -9747,7 +9756,7 @@
       <c r="F487" s="1"/>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A488" s="2">
+      <c r="A488" s="3">
         <v>45838</v>
       </c>
       <c r="B488" s="1">
@@ -9765,7 +9774,7 @@
       <c r="F488" s="1"/>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A489" s="2">
+      <c r="A489" s="3">
         <v>45838</v>
       </c>
       <c r="B489" s="1">
@@ -9783,7 +9792,7 @@
       <c r="F489" s="1"/>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A490" s="2">
+      <c r="A490" s="3">
         <v>45838</v>
       </c>
       <c r="B490" s="1">
@@ -9801,7 +9810,7 @@
       <c r="F490" s="1"/>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A491" s="2">
+      <c r="A491" s="3">
         <v>45838</v>
       </c>
       <c r="B491" s="1">
@@ -9819,7 +9828,7 @@
       <c r="F491" s="1"/>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A492" s="2">
+      <c r="A492" s="3">
         <v>45838</v>
       </c>
       <c r="B492" s="1">
@@ -9837,7 +9846,7 @@
       <c r="F492" s="1"/>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A493" s="2">
+      <c r="A493" s="3">
         <v>45838</v>
       </c>
       <c r="B493" s="1">
@@ -9855,7 +9864,7 @@
       <c r="F493" s="1"/>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A494" s="2">
+      <c r="A494" s="3">
         <v>45838</v>
       </c>
       <c r="B494" s="1">
@@ -9873,7 +9882,7 @@
       <c r="F494" s="1"/>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A495" s="2">
+      <c r="A495" s="3">
         <v>45838</v>
       </c>
       <c r="B495" s="1">
@@ -9891,7 +9900,7 @@
       <c r="F495" s="1"/>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A496" s="2">
+      <c r="A496" s="3">
         <v>45838</v>
       </c>
       <c r="B496" s="1">
@@ -9909,7 +9918,7 @@
       <c r="F496" s="1"/>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A497" s="2">
+      <c r="A497" s="3">
         <v>45838</v>
       </c>
       <c r="B497" s="1">
@@ -9927,7 +9936,7 @@
       <c r="F497" s="1"/>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A498" s="2">
+      <c r="A498" s="3">
         <v>45838</v>
       </c>
       <c r="B498" s="1">
@@ -9945,7 +9954,7 @@
       <c r="F498" s="1"/>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A499" s="2">
+      <c r="A499" s="3">
         <v>45838</v>
       </c>
       <c r="B499" s="1">
@@ -9963,7 +9972,7 @@
       <c r="F499" s="1"/>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A500" s="2">
+      <c r="A500" s="3">
         <v>45838</v>
       </c>
       <c r="B500" s="1">
@@ -9981,7 +9990,7 @@
       <c r="F500" s="1"/>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A501" s="2">
+      <c r="A501" s="3">
         <v>45838</v>
       </c>
       <c r="B501" s="1">
@@ -9999,7 +10008,7 @@
       <c r="F501" s="1"/>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A502" s="2">
+      <c r="A502" s="3">
         <v>45838</v>
       </c>
       <c r="B502" s="1">
@@ -10017,7 +10026,7 @@
       <c r="F502" s="1"/>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A503" s="2">
+      <c r="A503" s="3">
         <v>45838</v>
       </c>
       <c r="B503" s="1">
@@ -10035,7 +10044,7 @@
       <c r="F503" s="1"/>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A504" s="2">
+      <c r="A504" s="3">
         <v>45838</v>
       </c>
       <c r="B504" s="1">
@@ -10053,7 +10062,7 @@
       <c r="F504" s="1"/>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A505" s="2">
+      <c r="A505" s="3">
         <v>45838</v>
       </c>
       <c r="B505" s="1">
@@ -10071,7 +10080,7 @@
       <c r="F505" s="1"/>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A506" s="2">
+      <c r="A506" s="3">
         <v>45838</v>
       </c>
       <c r="B506" s="1">
@@ -10089,7 +10098,7 @@
       <c r="F506" s="1"/>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A507" s="2">
+      <c r="A507" s="3">
         <v>45838</v>
       </c>
       <c r="B507" s="1">
@@ -10107,7 +10116,7 @@
       <c r="F507" s="1"/>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A508" s="2">
+      <c r="A508" s="3">
         <v>45838</v>
       </c>
       <c r="B508" s="1">
@@ -10125,7 +10134,7 @@
       <c r="F508" s="1"/>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A509" s="2">
+      <c r="A509" s="3">
         <v>45838</v>
       </c>
       <c r="B509" s="1">
@@ -10143,7 +10152,7 @@
       <c r="F509" s="1"/>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A510" s="2">
+      <c r="A510" s="3">
         <v>45838</v>
       </c>
       <c r="B510" s="1">
@@ -10161,7 +10170,7 @@
       <c r="F510" s="1"/>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A511" s="2">
+      <c r="A511" s="3">
         <v>45838</v>
       </c>
       <c r="B511" s="1">
@@ -10179,7 +10188,7 @@
       <c r="F511" s="1"/>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A512" s="2">
+      <c r="A512" s="3">
         <v>45838</v>
       </c>
       <c r="B512" s="1">
@@ -10197,7 +10206,7 @@
       <c r="F512" s="1"/>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A513" s="2">
+      <c r="A513" s="3">
         <v>45838</v>
       </c>
       <c r="B513" s="1">
@@ -10215,7 +10224,7 @@
       <c r="F513" s="1"/>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A514" s="2">
+      <c r="A514" s="3">
         <v>45838</v>
       </c>
       <c r="B514" s="1">
@@ -10233,7 +10242,7 @@
       <c r="F514" s="1"/>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A515" s="2">
+      <c r="A515" s="3">
         <v>45838</v>
       </c>
       <c r="B515" s="1">
@@ -10251,7 +10260,7 @@
       <c r="F515" s="1"/>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A516" s="2">
+      <c r="A516" s="3">
         <v>45838</v>
       </c>
       <c r="B516" s="1">
@@ -10269,7 +10278,7 @@
       <c r="F516" s="1"/>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A517" s="2">
+      <c r="A517" s="3">
         <v>45838</v>
       </c>
       <c r="B517" s="1">
@@ -10287,7 +10296,7 @@
       <c r="F517" s="1"/>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A518" s="2">
+      <c r="A518" s="3">
         <v>45838</v>
       </c>
       <c r="B518" s="1">
@@ -10305,7 +10314,7 @@
       <c r="F518" s="1"/>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A519" s="2">
+      <c r="A519" s="3">
         <v>45838</v>
       </c>
       <c r="B519" s="1">
@@ -10323,7 +10332,7 @@
       <c r="F519" s="1"/>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A520" s="2">
+      <c r="A520" s="3">
         <v>45838</v>
       </c>
       <c r="B520" s="1">
@@ -10341,7 +10350,7 @@
       <c r="F520" s="1"/>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A521" s="2">
+      <c r="A521" s="3">
         <v>45838</v>
       </c>
       <c r="B521" s="1">
@@ -10359,7 +10368,7 @@
       <c r="F521" s="1"/>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A522" s="2">
+      <c r="A522" s="3">
         <v>45838</v>
       </c>
       <c r="B522" s="1">
@@ -10377,7 +10386,7 @@
       <c r="F522" s="1"/>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A523" s="2">
+      <c r="A523" s="3">
         <v>45838</v>
       </c>
       <c r="B523" s="1">
@@ -10395,7 +10404,7 @@
       <c r="F523" s="1"/>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A524" s="2">
+      <c r="A524" s="3">
         <v>45838</v>
       </c>
       <c r="B524" s="1">
@@ -10413,7 +10422,7 @@
       <c r="F524" s="1"/>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A525" s="2">
+      <c r="A525" s="3">
         <v>45838</v>
       </c>
       <c r="B525" s="1">
@@ -10431,7 +10440,7 @@
       <c r="F525" s="1"/>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A526" s="2">
+      <c r="A526" s="3">
         <v>45838</v>
       </c>
       <c r="B526" s="1">
@@ -10449,7 +10458,7 @@
       <c r="F526" s="1"/>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A527" s="2">
+      <c r="A527" s="3">
         <v>45838</v>
       </c>
       <c r="B527" s="1">
@@ -10467,7 +10476,7 @@
       <c r="F527" s="1"/>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A528" s="2">
+      <c r="A528" s="3">
         <v>45838</v>
       </c>
       <c r="B528" s="1">
@@ -10485,7 +10494,7 @@
       <c r="F528" s="1"/>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A529" s="2">
+      <c r="A529" s="3">
         <v>45838</v>
       </c>
       <c r="B529" s="1">
@@ -10503,7 +10512,7 @@
       <c r="F529" s="1"/>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A530" s="2">
+      <c r="A530" s="3">
         <v>45838</v>
       </c>
       <c r="B530" s="1">
@@ -10521,7 +10530,7 @@
       <c r="F530" s="1"/>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A531" s="2">
+      <c r="A531" s="3">
         <v>45838</v>
       </c>
       <c r="B531" s="1">
@@ -10539,7 +10548,7 @@
       <c r="F531" s="1"/>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A532" s="2">
+      <c r="A532" s="3">
         <v>45838</v>
       </c>
       <c r="B532" s="1">
@@ -10557,7 +10566,7 @@
       <c r="F532" s="1"/>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A533" s="2">
+      <c r="A533" s="3">
         <v>45838</v>
       </c>
       <c r="B533" s="1">
@@ -10575,7 +10584,7 @@
       <c r="F533" s="1"/>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A534" s="2">
+      <c r="A534" s="3">
         <v>45838</v>
       </c>
       <c r="B534" s="1">
@@ -10593,7 +10602,7 @@
       <c r="F534" s="1"/>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A535" s="2">
+      <c r="A535" s="3">
         <v>45838</v>
       </c>
       <c r="B535" s="1">
@@ -10611,7 +10620,7 @@
       <c r="F535" s="1"/>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A536" s="2">
+      <c r="A536" s="3">
         <v>45838</v>
       </c>
       <c r="B536" s="1">
@@ -10629,7 +10638,7 @@
       <c r="F536" s="1"/>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A537" s="2">
+      <c r="A537" s="3">
         <v>45838</v>
       </c>
       <c r="B537" s="1">
@@ -10647,7 +10656,7 @@
       <c r="F537" s="1"/>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A538" s="2">
+      <c r="A538" s="3">
         <v>45838</v>
       </c>
       <c r="B538" s="1">
@@ -10665,7 +10674,7 @@
       <c r="F538" s="1"/>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A539" s="2">
+      <c r="A539" s="3">
         <v>45838</v>
       </c>
       <c r="B539" s="1">
@@ -10683,7 +10692,7 @@
       <c r="F539" s="1"/>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A540" s="2">
+      <c r="A540" s="3">
         <v>45838</v>
       </c>
       <c r="B540" s="1">
@@ -10701,7 +10710,7 @@
       <c r="F540" s="1"/>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A541" s="2">
+      <c r="A541" s="3">
         <v>45838</v>
       </c>
       <c r="B541" s="1">
@@ -10719,7 +10728,7 @@
       <c r="F541" s="1"/>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A542" s="2">
+      <c r="A542" s="3">
         <v>45838</v>
       </c>
       <c r="B542" s="1">
@@ -10737,7 +10746,7 @@
       <c r="F542" s="1"/>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A543" s="2">
+      <c r="A543" s="3">
         <v>45838</v>
       </c>
       <c r="B543" s="1">
@@ -10755,7 +10764,7 @@
       <c r="F543" s="1"/>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A544" s="2">
+      <c r="A544" s="3">
         <v>45838</v>
       </c>
       <c r="B544" s="1">
@@ -10773,7 +10782,7 @@
       <c r="F544" s="1"/>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A545" s="2">
+      <c r="A545" s="3">
         <v>45838</v>
       </c>
       <c r="B545" s="1">
@@ -10791,7 +10800,7 @@
       <c r="F545" s="1"/>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A546" s="2">
+      <c r="A546" s="3">
         <v>45838</v>
       </c>
       <c r="B546" s="1">
@@ -10809,7 +10818,7 @@
       <c r="F546" s="1"/>
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A547" s="2">
+      <c r="A547" s="3">
         <v>45838</v>
       </c>
       <c r="B547" s="1">
@@ -10827,7 +10836,7 @@
       <c r="F547" s="1"/>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A548" s="2">
+      <c r="A548" s="3">
         <v>45838</v>
       </c>
       <c r="B548" s="1">
@@ -10845,7 +10854,7 @@
       <c r="F548" s="1"/>
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A549" s="2">
+      <c r="A549" s="3">
         <v>45838</v>
       </c>
       <c r="B549" s="1">
@@ -10863,7 +10872,7 @@
       <c r="F549" s="1"/>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A550" s="2">
+      <c r="A550" s="3">
         <v>45838</v>
       </c>
       <c r="B550" s="1">
@@ -10881,7 +10890,7 @@
       <c r="F550" s="1"/>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A551" s="2">
+      <c r="A551" s="3">
         <v>45838</v>
       </c>
       <c r="B551" s="1">
@@ -10899,7 +10908,7 @@
       <c r="F551" s="1"/>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A552" s="2">
+      <c r="A552" s="3">
         <v>45838</v>
       </c>
       <c r="B552" s="1">
@@ -10917,7 +10926,7 @@
       <c r="F552" s="1"/>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A553" s="2">
+      <c r="A553" s="3">
         <v>45838</v>
       </c>
       <c r="B553" s="1">
@@ -10935,7 +10944,7 @@
       <c r="F553" s="1"/>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A554" s="2">
+      <c r="A554" s="3">
         <v>45838</v>
       </c>
       <c r="B554" s="1">
@@ -10953,7 +10962,7 @@
       <c r="F554" s="1"/>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A555" s="2">
+      <c r="A555" s="3">
         <v>45838</v>
       </c>
       <c r="B555" s="1">
@@ -10971,7 +10980,7 @@
       <c r="F555" s="1"/>
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A556" s="2">
+      <c r="A556" s="3">
         <v>45838</v>
       </c>
       <c r="B556" s="1">
@@ -10989,7 +10998,7 @@
       <c r="F556" s="1"/>
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A557" s="2">
+      <c r="A557" s="3">
         <v>45838</v>
       </c>
       <c r="B557" s="1">
@@ -11007,7 +11016,7 @@
       <c r="F557" s="1"/>
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A558" s="2">
+      <c r="A558" s="3">
         <v>45838</v>
       </c>
       <c r="B558" s="1">
@@ -11025,7 +11034,7 @@
       <c r="F558" s="1"/>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A559" s="2">
+      <c r="A559" s="3">
         <v>45838</v>
       </c>
       <c r="B559" s="1">
@@ -11043,7 +11052,7 @@
       <c r="F559" s="1"/>
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A560" s="2">
+      <c r="A560" s="3">
         <v>45838</v>
       </c>
       <c r="B560" s="1">
@@ -11061,7 +11070,7 @@
       <c r="F560" s="1"/>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A561" s="2">
+      <c r="A561" s="3">
         <v>45838</v>
       </c>
       <c r="B561" s="1">
@@ -11079,7 +11088,7 @@
       <c r="F561" s="1"/>
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A562" s="2">
+      <c r="A562" s="3">
         <v>45838</v>
       </c>
       <c r="B562" s="1">
@@ -11097,7 +11106,7 @@
       <c r="F562" s="1"/>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A563" s="2">
+      <c r="A563" s="3">
         <v>45838</v>
       </c>
       <c r="B563" s="1">
@@ -11115,7 +11124,7 @@
       <c r="F563" s="1"/>
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A564" s="2">
+      <c r="A564" s="3">
         <v>45838</v>
       </c>
       <c r="B564" s="1">
@@ -11133,7 +11142,7 @@
       <c r="F564" s="1"/>
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A565" s="2">
+      <c r="A565" s="3">
         <v>45838</v>
       </c>
       <c r="B565" s="1">
@@ -11151,7 +11160,7 @@
       <c r="F565" s="1"/>
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A566" s="2">
+      <c r="A566" s="3">
         <v>45838</v>
       </c>
       <c r="B566" s="1">
@@ -11169,7 +11178,7 @@
       <c r="F566" s="1"/>
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A567" s="2">
+      <c r="A567" s="3">
         <v>45838</v>
       </c>
       <c r="B567" s="1">
@@ -11187,7 +11196,7 @@
       <c r="F567" s="1"/>
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A568" s="2">
+      <c r="A568" s="3">
         <v>45838</v>
       </c>
       <c r="B568" s="1">
@@ -11205,7 +11214,7 @@
       <c r="F568" s="1"/>
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A569" s="2">
+      <c r="A569" s="3">
         <v>45838</v>
       </c>
       <c r="B569" s="1">
@@ -11223,7 +11232,7 @@
       <c r="F569" s="1"/>
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A570" s="2">
+      <c r="A570" s="3">
         <v>45838</v>
       </c>
       <c r="B570" s="1">
@@ -11241,7 +11250,7 @@
       <c r="F570" s="1"/>
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A571" s="2">
+      <c r="A571" s="3">
         <v>45838</v>
       </c>
       <c r="B571" s="1">
@@ -11259,7 +11268,7 @@
       <c r="F571" s="1"/>
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A572" s="2">
+      <c r="A572" s="3">
         <v>45838</v>
       </c>
       <c r="B572" s="1">
@@ -11277,7 +11286,7 @@
       <c r="F572" s="1"/>
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A573" s="2">
+      <c r="A573" s="3">
         <v>45838</v>
       </c>
       <c r="B573" s="1">
@@ -11295,7 +11304,7 @@
       <c r="F573" s="1"/>
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A574" s="2">
+      <c r="A574" s="3">
         <v>45838</v>
       </c>
       <c r="B574" s="1">
@@ -11313,7 +11322,7 @@
       <c r="F574" s="1"/>
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A575" s="2">
+      <c r="A575" s="3">
         <v>45838</v>
       </c>
       <c r="B575" s="1">
@@ -11331,7 +11340,7 @@
       <c r="F575" s="1"/>
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A576" s="2">
+      <c r="A576" s="3">
         <v>45838</v>
       </c>
       <c r="B576" s="1">
@@ -11349,7 +11358,7 @@
       <c r="F576" s="1"/>
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A577" s="2">
+      <c r="A577" s="3">
         <v>45838</v>
       </c>
       <c r="B577" s="1">
@@ -11367,7 +11376,7 @@
       <c r="F577" s="1"/>
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A578" s="2">
+      <c r="A578" s="3">
         <v>45838</v>
       </c>
       <c r="B578" s="1">
@@ -11385,7 +11394,7 @@
       <c r="F578" s="1"/>
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A579" s="2">
+      <c r="A579" s="3">
         <v>45838</v>
       </c>
       <c r="B579" s="1">
@@ -11403,7 +11412,7 @@
       <c r="F579" s="1"/>
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A580" s="2">
+      <c r="A580" s="3">
         <v>45838</v>
       </c>
       <c r="B580" s="1">
@@ -11421,7 +11430,7 @@
       <c r="F580" s="1"/>
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A581" s="2">
+      <c r="A581" s="3">
         <v>45838</v>
       </c>
       <c r="B581" s="1">
@@ -11439,7 +11448,7 @@
       <c r="F581" s="1"/>
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A582" s="2">
+      <c r="A582" s="3">
         <v>45838</v>
       </c>
       <c r="B582" s="1">
@@ -11457,7 +11466,7 @@
       <c r="F582" s="1"/>
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A583" s="2">
+      <c r="A583" s="3">
         <v>45838</v>
       </c>
       <c r="B583" s="1">
@@ -11475,7 +11484,7 @@
       <c r="F583" s="1"/>
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A584" s="2">
+      <c r="A584" s="3">
         <v>45838</v>
       </c>
       <c r="B584" s="1">
@@ -11493,7 +11502,7 @@
       <c r="F584" s="1"/>
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A585" s="2">
+      <c r="A585" s="3">
         <v>45838</v>
       </c>
       <c r="B585" s="1">
@@ -11511,7 +11520,7 @@
       <c r="F585" s="1"/>
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A586" s="2">
+      <c r="A586" s="3">
         <v>45838</v>
       </c>
       <c r="B586" s="1">
@@ -11529,7 +11538,7 @@
       <c r="F586" s="1"/>
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A587" s="2">
+      <c r="A587" s="3">
         <v>45838</v>
       </c>
       <c r="B587" s="1">
@@ -11547,7 +11556,7 @@
       <c r="F587" s="1"/>
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A588" s="2">
+      <c r="A588" s="3">
         <v>45838</v>
       </c>
       <c r="B588" s="1">
@@ -11565,7 +11574,7 @@
       <c r="F588" s="1"/>
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A589" s="2">
+      <c r="A589" s="3">
         <v>45838</v>
       </c>
       <c r="B589" s="1">
@@ -11583,7 +11592,7 @@
       <c r="F589" s="1"/>
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A590" s="2">
+      <c r="A590" s="3">
         <v>45838</v>
       </c>
       <c r="B590" s="1">
@@ -11601,7 +11610,7 @@
       <c r="F590" s="1"/>
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A591" s="2">
+      <c r="A591" s="3">
         <v>45838</v>
       </c>
       <c r="B591" s="1">
@@ -11619,7 +11628,7 @@
       <c r="F591" s="1"/>
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A592" s="2">
+      <c r="A592" s="3">
         <v>45838</v>
       </c>
       <c r="B592" s="1">
@@ -11637,7 +11646,7 @@
       <c r="F592" s="1"/>
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A593" s="2">
+      <c r="A593" s="3">
         <v>45838</v>
       </c>
       <c r="B593" s="1">
@@ -11655,7 +11664,7 @@
       <c r="F593" s="1"/>
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A594" s="2">
+      <c r="A594" s="3">
         <v>45838</v>
       </c>
       <c r="B594" s="1">
@@ -11673,7 +11682,7 @@
       <c r="F594" s="1"/>
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A595" s="2">
+      <c r="A595" s="3">
         <v>45838</v>
       </c>
       <c r="B595" s="1">
@@ -11691,7 +11700,7 @@
       <c r="F595" s="1"/>
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A596" s="2">
+      <c r="A596" s="3">
         <v>45838</v>
       </c>
       <c r="B596" s="1">
@@ -11709,7 +11718,7 @@
       <c r="F596" s="1"/>
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A597" s="2">
+      <c r="A597" s="3">
         <v>45838</v>
       </c>
       <c r="B597" s="1">
@@ -11727,7 +11736,7 @@
       <c r="F597" s="1"/>
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A598" s="2">
+      <c r="A598" s="3">
         <v>45838</v>
       </c>
       <c r="B598" s="1">
@@ -11745,7 +11754,7 @@
       <c r="F598" s="1"/>
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A599" s="2">
+      <c r="A599" s="3">
         <v>45838</v>
       </c>
       <c r="B599" s="1">
@@ -11763,7 +11772,7 @@
       <c r="F599" s="1"/>
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A600" s="2">
+      <c r="A600" s="3">
         <v>45838</v>
       </c>
       <c r="B600" s="1">
@@ -11781,7 +11790,7 @@
       <c r="F600" s="1"/>
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A601" s="2">
+      <c r="A601" s="3">
         <v>45838</v>
       </c>
       <c r="B601" s="1">
@@ -11799,7 +11808,7 @@
       <c r="F601" s="1"/>
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A602" s="2">
+      <c r="A602" s="3">
         <v>45838</v>
       </c>
       <c r="B602" s="1">
@@ -11817,7 +11826,7 @@
       <c r="F602" s="1"/>
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A603" s="2">
+      <c r="A603" s="3">
         <v>45838</v>
       </c>
       <c r="B603" s="1">
@@ -11835,7 +11844,7 @@
       <c r="F603" s="1"/>
     </row>
     <row r="604" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A604" s="2">
+      <c r="A604" s="3">
         <v>45838</v>
       </c>
       <c r="B604" s="1">
@@ -11853,7 +11862,7 @@
       <c r="F604" s="1"/>
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A605" s="2">
+      <c r="A605" s="3">
         <v>45838</v>
       </c>
       <c r="B605" s="1">
@@ -11871,7 +11880,7 @@
       <c r="F605" s="1"/>
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A606" s="2">
+      <c r="A606" s="3">
         <v>45838</v>
       </c>
       <c r="B606" s="1">
@@ -11889,7 +11898,7 @@
       <c r="F606" s="1"/>
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A607" s="2">
+      <c r="A607" s="3">
         <v>45838</v>
       </c>
       <c r="B607" s="1">
@@ -11907,7 +11916,7 @@
       <c r="F607" s="1"/>
     </row>
     <row r="608" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A608" s="2">
+      <c r="A608" s="3">
         <v>45838</v>
       </c>
       <c r="B608" s="1">
@@ -11925,7 +11934,7 @@
       <c r="F608" s="1"/>
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A609" s="2">
+      <c r="A609" s="3">
         <v>45838</v>
       </c>
       <c r="B609" s="1">
@@ -11943,7 +11952,7 @@
       <c r="F609" s="1"/>
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A610" s="2">
+      <c r="A610" s="3">
         <v>45838</v>
       </c>
       <c r="B610" s="1">
@@ -11961,7 +11970,7 @@
       <c r="F610" s="1"/>
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A611" s="2">
+      <c r="A611" s="3">
         <v>45838</v>
       </c>
       <c r="B611" s="1">
@@ -11979,7 +11988,7 @@
       <c r="F611" s="1"/>
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A612" s="2">
+      <c r="A612" s="3">
         <v>45838</v>
       </c>
       <c r="B612" s="1">
@@ -11997,7 +12006,7 @@
       <c r="F612" s="1"/>
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A613" s="2">
+      <c r="A613" s="3">
         <v>45838</v>
       </c>
       <c r="B613" s="1">
@@ -12015,7 +12024,7 @@
       <c r="F613" s="1"/>
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A614" s="2">
+      <c r="A614" s="3">
         <v>45838</v>
       </c>
       <c r="B614" s="1">
@@ -12033,7 +12042,7 @@
       <c r="F614" s="1"/>
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A615" s="2">
+      <c r="A615" s="3">
         <v>45838</v>
       </c>
       <c r="B615" s="1">
@@ -12051,7 +12060,7 @@
       <c r="F615" s="1"/>
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A616" s="2">
+      <c r="A616" s="3">
         <v>45838</v>
       </c>
       <c r="B616" s="1">
@@ -12069,7 +12078,7 @@
       <c r="F616" s="1"/>
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A617" s="2">
+      <c r="A617" s="3">
         <v>45838</v>
       </c>
       <c r="B617" s="1">
@@ -12087,7 +12096,7 @@
       <c r="F617" s="1"/>
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A618" s="2">
+      <c r="A618" s="3">
         <v>45838</v>
       </c>
       <c r="B618" s="1">
@@ -12105,7 +12114,7 @@
       <c r="F618" s="1"/>
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A619" s="2">
+      <c r="A619" s="3">
         <v>45838</v>
       </c>
       <c r="B619" s="1">
@@ -12123,7 +12132,7 @@
       <c r="F619" s="1"/>
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A620" s="2">
+      <c r="A620" s="3">
         <v>45838</v>
       </c>
       <c r="B620" s="1">
@@ -12141,7 +12150,7 @@
       <c r="F620" s="1"/>
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A621" s="2">
+      <c r="A621" s="3">
         <v>45838</v>
       </c>
       <c r="B621" s="1">
@@ -12159,7 +12168,7 @@
       <c r="F621" s="1"/>
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A622" s="2">
+      <c r="A622" s="3">
         <v>45838</v>
       </c>
       <c r="B622" s="1">
@@ -12177,7 +12186,7 @@
       <c r="F622" s="1"/>
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A623" s="2">
+      <c r="A623" s="3">
         <v>45838</v>
       </c>
       <c r="B623" s="1">
@@ -12195,7 +12204,7 @@
       <c r="F623" s="1"/>
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A624" s="2">
+      <c r="A624" s="3">
         <v>45838</v>
       </c>
       <c r="B624" s="1">
@@ -12213,7 +12222,7 @@
       <c r="F624" s="1"/>
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A625" s="2">
+      <c r="A625" s="3">
         <v>45838</v>
       </c>
       <c r="B625" s="1">
@@ -12231,7 +12240,7 @@
       <c r="F625" s="1"/>
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A626" s="2">
+      <c r="A626" s="3">
         <v>45838</v>
       </c>
       <c r="B626" s="1">
@@ -12249,7 +12258,7 @@
       <c r="F626" s="1"/>
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A627" s="2">
+      <c r="A627" s="3">
         <v>45838</v>
       </c>
       <c r="B627" s="1">
@@ -12267,7 +12276,7 @@
       <c r="F627" s="1"/>
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A628" s="2">
+      <c r="A628" s="3">
         <v>45838</v>
       </c>
       <c r="B628" s="1">
@@ -12285,7 +12294,7 @@
       <c r="F628" s="1"/>
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A629" s="2">
+      <c r="A629" s="3">
         <v>45838</v>
       </c>
       <c r="B629" s="1">
@@ -12303,7 +12312,7 @@
       <c r="F629" s="1"/>
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A630" s="2">
+      <c r="A630" s="3">
         <v>45838</v>
       </c>
       <c r="B630" s="1">
@@ -12321,7 +12330,7 @@
       <c r="F630" s="1"/>
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A631" s="2">
+      <c r="A631" s="3">
         <v>45838</v>
       </c>
       <c r="B631" s="1">
@@ -12339,7 +12348,7 @@
       <c r="F631" s="1"/>
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A632" s="2">
+      <c r="A632" s="3">
         <v>45838</v>
       </c>
       <c r="B632" s="1">
@@ -12357,7 +12366,7 @@
       <c r="F632" s="1"/>
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A633" s="2">
+      <c r="A633" s="3">
         <v>45838</v>
       </c>
       <c r="B633" s="1">
@@ -12375,7 +12384,7 @@
       <c r="F633" s="1"/>
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A634" s="2">
+      <c r="A634" s="3">
         <v>45838</v>
       </c>
       <c r="B634" s="1">
@@ -12393,7 +12402,7 @@
       <c r="F634" s="1"/>
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A635" s="2">
+      <c r="A635" s="3">
         <v>45838</v>
       </c>
       <c r="B635" s="1">
@@ -12411,7 +12420,7 @@
       <c r="F635" s="1"/>
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A636" s="2">
+      <c r="A636" s="3">
         <v>45838</v>
       </c>
       <c r="B636" s="1">
@@ -12429,7 +12438,7 @@
       <c r="F636" s="1"/>
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A637" s="2">
+      <c r="A637" s="3">
         <v>45838</v>
       </c>
       <c r="B637" s="1">
@@ -12447,7 +12456,7 @@
       <c r="F637" s="1"/>
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A638" s="2">
+      <c r="A638" s="3">
         <v>45838</v>
       </c>
       <c r="B638" s="1">
@@ -12465,7 +12474,7 @@
       <c r="F638" s="1"/>
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A639" s="2">
+      <c r="A639" s="3">
         <v>45838</v>
       </c>
       <c r="B639" s="1">
@@ -12483,7 +12492,7 @@
       <c r="F639" s="1"/>
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A640" s="2">
+      <c r="A640" s="3">
         <v>45838</v>
       </c>
       <c r="B640" s="1">
@@ -12501,7 +12510,7 @@
       <c r="F640" s="1"/>
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A641" s="2">
+      <c r="A641" s="3">
         <v>45838</v>
       </c>
       <c r="B641" s="1">
@@ -12519,7 +12528,7 @@
       <c r="F641" s="1"/>
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A642" s="2">
+      <c r="A642" s="3">
         <v>45838</v>
       </c>
       <c r="B642" s="1">
@@ -12537,7 +12546,7 @@
       <c r="F642" s="1"/>
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A643" s="2">
+      <c r="A643" s="3">
         <v>45838</v>
       </c>
       <c r="B643" s="1">
@@ -12555,7 +12564,7 @@
       <c r="F643" s="1"/>
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A644" s="2">
+      <c r="A644" s="3">
         <v>45838</v>
       </c>
       <c r="B644" s="1">
@@ -12573,7 +12582,7 @@
       <c r="F644" s="1"/>
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A645" s="2">
+      <c r="A645" s="3">
         <v>45838</v>
       </c>
       <c r="B645" s="1">
@@ -12591,7 +12600,7 @@
       <c r="F645" s="1"/>
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A646" s="2">
+      <c r="A646" s="3">
         <v>45838</v>
       </c>
       <c r="B646" s="1">
@@ -12609,7 +12618,7 @@
       <c r="F646" s="1"/>
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A647" s="2">
+      <c r="A647" s="3">
         <v>45838</v>
       </c>
       <c r="B647" s="1">
@@ -12627,7 +12636,7 @@
       <c r="F647" s="1"/>
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A648" s="2">
+      <c r="A648" s="3">
         <v>45838</v>
       </c>
       <c r="B648" s="1">
@@ -12645,7 +12654,7 @@
       <c r="F648" s="1"/>
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A649" s="2">
+      <c r="A649" s="3">
         <v>45838</v>
       </c>
       <c r="B649" s="1">
@@ -12663,7 +12672,7 @@
       <c r="F649" s="1"/>
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A650" s="2">
+      <c r="A650" s="3">
         <v>45838</v>
       </c>
       <c r="B650" s="1">
@@ -12681,7 +12690,7 @@
       <c r="F650" s="1"/>
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A651" s="2">
+      <c r="A651" s="3">
         <v>45838</v>
       </c>
       <c r="B651" s="1">
@@ -12699,7 +12708,7 @@
       <c r="F651" s="1"/>
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A652" s="2">
+      <c r="A652" s="3">
         <v>45838</v>
       </c>
       <c r="B652" s="1">
@@ -12717,7 +12726,7 @@
       <c r="F652" s="1"/>
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A653" s="2">
+      <c r="A653" s="3">
         <v>45838</v>
       </c>
       <c r="B653" s="1">
@@ -12735,7 +12744,7 @@
       <c r="F653" s="1"/>
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A654" s="2">
+      <c r="A654" s="3">
         <v>45838</v>
       </c>
       <c r="B654" s="1">
@@ -12753,7 +12762,7 @@
       <c r="F654" s="1"/>
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A655" s="2">
+      <c r="A655" s="3">
         <v>45838</v>
       </c>
       <c r="B655" s="1">
@@ -12771,7 +12780,7 @@
       <c r="F655" s="1"/>
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A656" s="2">
+      <c r="A656" s="3">
         <v>45838</v>
       </c>
       <c r="B656" s="1">
@@ -12789,7 +12798,7 @@
       <c r="F656" s="1"/>
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A657" s="2">
+      <c r="A657" s="3">
         <v>45838</v>
       </c>
       <c r="B657" s="1">
@@ -12807,7 +12816,7 @@
       <c r="F657" s="1"/>
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A658" s="2">
+      <c r="A658" s="3">
         <v>45838</v>
       </c>
       <c r="B658" s="1">
@@ -12825,7 +12834,7 @@
       <c r="F658" s="1"/>
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A659" s="2">
+      <c r="A659" s="3">
         <v>45838</v>
       </c>
       <c r="B659" s="1">
@@ -12843,7 +12852,7 @@
       <c r="F659" s="1"/>
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A660" s="2">
+      <c r="A660" s="3">
         <v>45838</v>
       </c>
       <c r="B660" s="1">
@@ -12861,7 +12870,7 @@
       <c r="F660" s="1"/>
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A661" s="2">
+      <c r="A661" s="3">
         <v>45838</v>
       </c>
       <c r="B661" s="1">
@@ -12879,7 +12888,7 @@
       <c r="F661" s="1"/>
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A662" s="2">
+      <c r="A662" s="3">
         <v>45838</v>
       </c>
       <c r="B662" s="1">
@@ -12897,7 +12906,7 @@
       <c r="F662" s="1"/>
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A663" s="2">
+      <c r="A663" s="3">
         <v>45838</v>
       </c>
       <c r="B663" s="1">
@@ -12915,7 +12924,7 @@
       <c r="F663" s="1"/>
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A664" s="2">
+      <c r="A664" s="3">
         <v>45838</v>
       </c>
       <c r="B664" s="1">
@@ -12933,7 +12942,7 @@
       <c r="F664" s="1"/>
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A665" s="2">
+      <c r="A665" s="3">
         <v>45838</v>
       </c>
       <c r="B665" s="1">
@@ -12951,7 +12960,7 @@
       <c r="F665" s="1"/>
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A666" s="2">
+      <c r="A666" s="3">
         <v>45838</v>
       </c>
       <c r="B666" s="1">
@@ -12969,7 +12978,7 @@
       <c r="F666" s="1"/>
     </row>
     <row r="667" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A667" s="2">
+      <c r="A667" s="3">
         <v>45838</v>
       </c>
       <c r="B667" s="1">
@@ -12987,7 +12996,7 @@
       <c r="F667" s="1"/>
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A668" s="2">
+      <c r="A668" s="3">
         <v>45838</v>
       </c>
       <c r="B668" s="1">
@@ -13005,7 +13014,7 @@
       <c r="F668" s="1"/>
     </row>
     <row r="669" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A669" s="2">
+      <c r="A669" s="3">
         <v>45838</v>
       </c>
       <c r="B669" s="1">
@@ -13023,7 +13032,7 @@
       <c r="F669" s="1"/>
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A670" s="2">
+      <c r="A670" s="3">
         <v>45838</v>
       </c>
       <c r="B670" s="1">
@@ -13041,7 +13050,7 @@
       <c r="F670" s="1"/>
     </row>
     <row r="671" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A671" s="2">
+      <c r="A671" s="3">
         <v>45838</v>
       </c>
       <c r="B671" s="1">
@@ -13059,7 +13068,7 @@
       <c r="F671" s="1"/>
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A672" s="2">
+      <c r="A672" s="3">
         <v>45838</v>
       </c>
       <c r="B672" s="1">
@@ -13077,7 +13086,7 @@
       <c r="F672" s="1"/>
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A673" s="2">
+      <c r="A673" s="3">
         <v>45838</v>
       </c>
       <c r="B673" s="1">
@@ -13095,7 +13104,7 @@
       <c r="F673" s="1"/>
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A674" s="2">
+      <c r="A674" s="3">
         <v>45838</v>
       </c>
       <c r="B674" s="1">
@@ -13113,7 +13122,7 @@
       <c r="F674" s="1"/>
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A675" s="2">
+      <c r="A675" s="3">
         <v>45838</v>
       </c>
       <c r="B675" s="1">
@@ -13131,7 +13140,7 @@
       <c r="F675" s="1"/>
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A676" s="2">
+      <c r="A676" s="3">
         <v>45838</v>
       </c>
       <c r="B676" s="1">
@@ -13149,7 +13158,7 @@
       <c r="F676" s="1"/>
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A677" s="2">
+      <c r="A677" s="3">
         <v>45838</v>
       </c>
       <c r="B677" s="1">
@@ -13167,7 +13176,7 @@
       <c r="F677" s="1"/>
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A678" s="2">
+      <c r="A678" s="3">
         <v>45838</v>
       </c>
       <c r="B678" s="1">
@@ -13185,7 +13194,7 @@
       <c r="F678" s="1"/>
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A679" s="2">
+      <c r="A679" s="3">
         <v>45838</v>
       </c>
       <c r="B679" s="1">
@@ -13203,7 +13212,7 @@
       <c r="F679" s="1"/>
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A680" s="2">
+      <c r="A680" s="3">
         <v>45838</v>
       </c>
       <c r="B680" s="1">
@@ -13221,7 +13230,7 @@
       <c r="F680" s="1"/>
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A681" s="2">
+      <c r="A681" s="3">
         <v>45838</v>
       </c>
       <c r="B681" s="1">
@@ -13239,7 +13248,7 @@
       <c r="F681" s="1"/>
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A682" s="2">
+      <c r="A682" s="3">
         <v>45838</v>
       </c>
       <c r="B682" s="1">
@@ -13257,7 +13266,7 @@
       <c r="F682" s="1"/>
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A683" s="2">
+      <c r="A683" s="3">
         <v>45838</v>
       </c>
       <c r="B683" s="1">
@@ -13275,7 +13284,7 @@
       <c r="F683" s="1"/>
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A684" s="2">
+      <c r="A684" s="3">
         <v>45838</v>
       </c>
       <c r="B684" s="1">
@@ -13293,7 +13302,7 @@
       <c r="F684" s="1"/>
     </row>
     <row r="685" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A685" s="2">
+      <c r="A685" s="3">
         <v>45838</v>
       </c>
       <c r="B685" s="1">
@@ -13312,8 +13321,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>